--- a/results/Kepler9.xlsx
+++ b/results/Kepler9.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT - Ondrive\Uli\Python\curvesim\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5820366-C852-4DAC-9524-B10E00C97C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFDC00D-E93F-4BF1-80AB-F42876BE52AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{98936307-1AC5-4379-A05D-810F04CE2DDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{98936307-1AC5-4379-A05D-810F04CE2DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="Params" sheetId="6" r:id="rId3"/>
+    <sheet name="Tmid" sheetId="5" r:id="rId4"/>
+    <sheet name="TT" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="44">
   <si>
     <t>TT</t>
   </si>
@@ -92,13 +95,92 @@
   <si>
     <t>Kepler9c</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tmid 3 800,15785 800,15795 ±0,00026 </t>
+  </si>
+  <si>
+    <t>param BestFit 50% 1σ range param BestFit 50% 1σ range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Pb[d] 19,2471658 19,2471669 +0,0000035 −0,0000036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ab/R∗ 25,00 24,95 +0,17 −0,16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rb/R∗ 0,082483 0,082515 +0,000099 −0,000107 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bb/R∗ 0,7803 0,7812 +0,0033 −0,0036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Linear Pc[d] 38,944030 38,944011 ±0,000012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ac/R∗ 40,00 39,91 +0,27 −0,25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rc/R∗ 0,07963 0,07964 +0,00013 −0,00015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bc/R∗ 0,8619 0,8624 +0,0019 −0,0023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pd 1,59295922 1,59295878 +0,00000109 −0,00000095 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Linear </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ad/R∗ 4,748 4,738 +0,032 −0,030 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rd/R∗ 0,01508 0,01517 ±0,00013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bd/R∗ 0,6955 0,6951 +0,0064 −0,0075 </t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best fit </t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>KEPLER9b</t>
+  </si>
+  <si>
+    <t>KEPLER9c</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ø</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -124,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +237,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,11 +252,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -183,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,8 +309,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -206,10 +322,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,7 +625,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -810,21 +941,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A008BF7F-30FD-4903-805A-A2BC1E19D40C}">
-  <dimension ref="M3:AH160"/>
+  <dimension ref="M3:P160"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
-    <col min="18" max="23" width="13.77734375" style="11" customWidth="1"/>
-    <col min="24" max="34" width="8.88671875" style="11"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="18" max="23" width="13.7109375" customWidth="1"/>
+    <col min="24" max="34" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="3" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M3" s="5" t="s">
         <v>0</v>
       </c>
@@ -832,7 +963,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M4" s="8" t="s">
         <v>1</v>
       </c>
@@ -842,7 +973,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M5" s="5" t="s">
         <v>5</v>
       </c>
@@ -852,7 +983,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M6" s="5" t="s">
         <v>6</v>
       </c>
@@ -862,7 +993,7 @@
       </c>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M7" s="5" t="s">
         <v>7</v>
       </c>
@@ -878,7 +1009,7 @@
         <v>2.9199999999946158E-2</v>
       </c>
     </row>
-    <row r="8" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M8" s="5" t="s">
         <v>8</v>
       </c>
@@ -891,7 +1022,7 @@
       </c>
       <c r="P8" s="6"/>
     </row>
-    <row r="10" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M10" s="9" t="s">
         <v>11</v>
       </c>
@@ -902,7 +1033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M11" s="4">
         <v>0.02</v>
       </c>
@@ -915,7 +1046,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M22" s="5" t="s">
         <v>0</v>
       </c>
@@ -923,7 +1054,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M23" s="8" t="s">
         <v>1</v>
       </c>
@@ -933,7 +1064,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M24" s="5" t="s">
         <v>5</v>
       </c>
@@ -943,7 +1074,7 @@
       </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M25" s="5" t="s">
         <v>6</v>
       </c>
@@ -956,7 +1087,7 @@
       </c>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M26" s="5" t="s">
         <v>7</v>
       </c>
@@ -966,7 +1097,7 @@
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M27" s="5" t="s">
         <v>8</v>
       </c>
@@ -976,7 +1107,7 @@
       </c>
       <c r="P27" s="6"/>
     </row>
-    <row r="29" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M29" s="9" t="s">
         <v>11</v>
       </c>
@@ -987,7 +1118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M30" s="4">
         <v>0.05</v>
       </c>
@@ -1000,7 +1131,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="42" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M42" s="5" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1142,7 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M43" s="8" t="s">
         <v>1</v>
       </c>
@@ -1022,7 +1153,7 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M44" s="5" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1169,7 @@
         <v>3.0525502318141662E-2</v>
       </c>
     </row>
-    <row r="45" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M45" s="5" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1185,7 @@
         <v>0.11638330757341464</v>
       </c>
     </row>
-    <row r="46" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M46" s="5" t="s">
         <v>7</v>
       </c>
@@ -1070,7 +1201,7 @@
         <v>2.8207109737195424E-2</v>
       </c>
     </row>
-    <row r="47" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M47" s="5" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1217,7 @@
         <v>0.17511591962875173</v>
       </c>
     </row>
-    <row r="49" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M49" s="9" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M50" s="4">
         <v>0.05</v>
       </c>
@@ -1110,7 +1241,7 @@
       </c>
       <c r="P50" s="1"/>
     </row>
-    <row r="56" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M56" s="5" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1251,7 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
     </row>
-    <row r="57" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M57" s="8" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1261,7 @@
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
     </row>
-    <row r="58" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M58" s="5" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1271,7 @@
       </c>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M59" s="5" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1287,7 @@
         <v>0.14502712477406021</v>
       </c>
     </row>
-    <row r="60" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M60" s="5" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1303,7 @@
         <v>1.4918625678092212E-2</v>
       </c>
     </row>
-    <row r="61" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M61" s="5" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1316,7 @@
       </c>
       <c r="P61" s="6"/>
     </row>
-    <row r="63" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M63" s="9" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M64" s="4">
         <v>0.05</v>
       </c>
@@ -1209,13 +1340,13 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="67" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M67" s="2"/>
       <c r="N67" s="3"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="70" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M70" s="5" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1354,7 @@
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M71" s="8" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1364,7 @@
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M72" s="5" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +1380,7 @@
         <v>2.8257456828669092E-2</v>
       </c>
     </row>
-    <row r="73" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M73" s="5" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1393,7 @@
       </c>
       <c r="P73" s="6"/>
     </row>
-    <row r="74" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M74" s="5" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1403,7 @@
       </c>
       <c r="P74" s="6"/>
     </row>
-    <row r="75" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M75" s="5" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1413,7 @@
       </c>
       <c r="P75" s="6"/>
     </row>
-    <row r="77" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M77" s="9" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +1424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M78" s="4">
         <v>0.05</v>
       </c>
@@ -1306,7 +1437,7 @@
       </c>
       <c r="P78" s="1"/>
     </row>
-    <row r="85" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M85" s="5" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1445,7 @@
       <c r="O85" s="7"/>
       <c r="P85" s="7"/>
     </row>
-    <row r="86" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M86" s="8" t="s">
         <v>1</v>
       </c>
@@ -1324,7 +1455,7 @@
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
     </row>
-    <row r="87" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M87" s="5" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1465,7 @@
       </c>
       <c r="P87" s="6"/>
     </row>
-    <row r="88" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M88" s="5" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1475,7 @@
       </c>
       <c r="P88" s="6"/>
     </row>
-    <row r="89" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M89" s="5" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1491,7 @@
         <v>2.9279999999971551E-2</v>
       </c>
     </row>
-    <row r="90" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M90" s="5" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1504,7 @@
       </c>
       <c r="P90" s="6"/>
     </row>
-    <row r="92" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M92" s="9" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M93" s="4">
         <v>0.02</v>
       </c>
@@ -1397,7 +1528,7 @@
       </c>
       <c r="P93" s="1"/>
     </row>
-    <row r="100" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M100" s="5" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1536,7 @@
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
     </row>
-    <row r="101" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M101" s="8" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1546,7 @@
       <c r="O101" s="7"/>
       <c r="P101" s="7"/>
     </row>
-    <row r="102" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M102" s="5" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1562,7 @@
         <v>1.8543046357990534E-2</v>
       </c>
     </row>
-    <row r="103" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M103" s="5" t="s">
         <v>6</v>
       </c>
@@ -1444,7 +1575,7 @@
       </c>
       <c r="P103" s="6"/>
     </row>
-    <row r="104" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M104" s="5" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1585,7 @@
       </c>
       <c r="P104" s="6"/>
     </row>
-    <row r="105" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M105" s="5" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1595,7 @@
       </c>
       <c r="P105" s="6"/>
     </row>
-    <row r="107" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M107" s="9" t="s">
         <v>11</v>
       </c>
@@ -1475,7 +1606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M108" s="4">
         <v>0.05</v>
       </c>
@@ -1488,7 +1619,7 @@
       </c>
       <c r="P108" s="1"/>
     </row>
-    <row r="116" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M116" s="5" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1627,7 @@
       <c r="O116" s="7"/>
       <c r="P116" s="7"/>
     </row>
-    <row r="117" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M117" s="8" t="s">
         <v>1</v>
       </c>
@@ -1506,7 +1637,7 @@
       <c r="O117" s="7"/>
       <c r="P117" s="7"/>
     </row>
-    <row r="118" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M118" s="5" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1653,7 @@
         <v>1.841359773379736E-2</v>
       </c>
     </row>
-    <row r="119" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M119" s="5" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1669,7 @@
         <v>0.13895184135935779</v>
       </c>
     </row>
-    <row r="120" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M120" s="5" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1685,7 @@
         <v>2.0963172804840724E-2</v>
       </c>
     </row>
-    <row r="121" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M121" s="5" t="s">
         <v>8</v>
       </c>
@@ -1570,7 +1701,7 @@
         <v>0.17832861189799587</v>
       </c>
     </row>
-    <row r="123" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M123" s="9" t="s">
         <v>11</v>
       </c>
@@ -1581,7 +1712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M124" s="4">
         <v>0.1</v>
       </c>
@@ -1594,7 +1725,7 @@
       </c>
       <c r="P124" s="1"/>
     </row>
-    <row r="152" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M152" s="5" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1733,7 @@
       <c r="O152" s="7"/>
       <c r="P152" s="7"/>
     </row>
-    <row r="153" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M153" s="8" t="s">
         <v>1</v>
       </c>
@@ -1612,7 +1743,7 @@
       <c r="O153" s="7"/>
       <c r="P153" s="7"/>
     </row>
-    <row r="154" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M154" s="5" t="s">
         <v>5</v>
       </c>
@@ -1622,7 +1753,7 @@
       </c>
       <c r="P154" s="6"/>
     </row>
-    <row r="155" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M155" s="5" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1769,7 @@
         <v>0.14193548387083865</v>
       </c>
     </row>
-    <row r="156" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M156" s="5" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +1782,7 @@
       </c>
       <c r="P156" s="6"/>
     </row>
-    <row r="157" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M157" s="5" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1792,7 @@
       </c>
       <c r="P157" s="6"/>
     </row>
-    <row r="159" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M159" s="9" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M160" s="4">
         <v>0.05</v>
       </c>
@@ -1695,382 +1826,3537 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA7F523-F8A8-44ED-805A-D4D820D8FF36}">
   <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="12">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
         <f>E3+M3</f>
         <v>2257.9652436904507</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1.2E-2</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>2257.8758278145692</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>2257.8943708609272</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
         <v>1.8543046357990534E-2</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="17">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="M3" s="16">
         <f>(M4+M5+M7)/3</f>
         <v>7.0872829523674838E-2</v>
       </c>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="12">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
         <f>SUM(D4:G4)/4</f>
         <v>2296.4616147308784</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>2296.3730878186971</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>2296.3915014164309</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>2296.5304532577902</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>2296.5514164305951</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>1.841359773379736E-2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>0.13895184135935779</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>2.0963172804840724E-2</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>0.17832861189799587</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <f>B4-E4</f>
         <v>7.0113314447553421E-2</v>
       </c>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <f>SUM(D5:G5)/2</f>
         <v>2315.7037634408603</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
         <v>2315.6327956989248</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>2315.7747311827957</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
         <v>0.14193548387083865</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="M5" s="11">
         <f t="shared" ref="M5:M7" si="0">B5-E5</f>
         <v>7.0967741935419326E-2</v>
       </c>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <f>E6+M6</f>
         <v>2373.4148201979447</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
         <v>2373.3439473684211</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="17">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="M6" s="16">
         <f>(M4+M5+M7)/3</f>
         <v>7.0872829523674838E-2</v>
       </c>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>2988.5133999999998</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>5.4687500000000777E-3</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
         <v>2988.4418625678118</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>2988.5868896925858</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>2988.6018083182639</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11">
         <v>0.14502712477406021</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>1.4918625678092212E-2</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="M7" s="12">
+      <c r="K7" s="11"/>
+      <c r="M7" s="11">
         <f t="shared" si="0"/>
         <v>7.1537432188051753E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <f>(F11+G11)/2-N11</f>
         <v>1906.3289651931996</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>0.01</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
         <v>1906.3872000000001</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>1906.4164800000001</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
         <v>2.9279999999971551E-2</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="17">
+      <c r="K11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="16">
         <f>N13</f>
         <v>7.2874806800427905E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
         <f>(F12+G12)/2-N12</f>
         <v>2333.6613251931994</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>0.01</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
         <v>2333.7195999999999</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>2333.7487999999998</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
         <v>2.9199999999946158E-2</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="17">
+      <c r="K12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="16">
         <f>N13</f>
         <v>7.2874806800427905E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <f>SUM(D13:G13)/4</f>
         <v>2958.6350463678518</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>4.6367851622874804E-3</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>2958.5469088098921</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>2958.5774343122102</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>2958.6938176197837</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>2958.7220247295209</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>3.0525502318141662E-2</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>0.11638330757341464</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>2.8207109737195424E-2</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>0.17511591962875173</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <f>B13-(D13+E13)/2</f>
         <v>7.2874806800427905E-2</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <f>(F13+G13)/2-B13</f>
         <v>7.2874806800427905E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
         <f>(D14+E14)/2+M14</f>
         <v>2997.6948528287785</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>0.01</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>2997.6078492935635</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>2997.6361067503922</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
         <v>2.8257456828669092E-2</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="17">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="16">
         <f>M13</f>
         <v>7.2874806800427905E-2</v>
       </c>
-      <c r="N14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E27F8D-B642-4978-AEF4-48C481445686}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476C7196-2387-4257-8B53-A03D0ADEFB53}">
+  <dimension ref="A1:I105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>2454977.2496199999</v>
+      </c>
+      <c r="C2">
+        <v>2454977.2496799999</v>
+      </c>
+      <c r="D2" s="21">
+        <v>5.3499999999999999E-4</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>19.22</v>
+      </c>
+      <c r="I2">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2454996.4842300001</v>
+      </c>
+      <c r="C3">
+        <v>2454996.4843600001</v>
+      </c>
+      <c r="D3" s="21">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="E3">
+        <f>B3-B2</f>
+        <v>19.234610000159591</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="17">
+        <v>19.25</v>
+      </c>
+      <c r="I3">
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>2455034.95597</v>
+      </c>
+      <c r="C4">
+        <v>2455034.9554499998</v>
+      </c>
+      <c r="D4" s="21">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>19.29</v>
+      </c>
+      <c r="I4">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>2455054.1917300001</v>
+      </c>
+      <c r="C5">
+        <v>2455054.1912400001</v>
+      </c>
+      <c r="D5" s="21">
+        <v>6.1000000000000008E-4</v>
+      </c>
+      <c r="E5">
+        <f>B5-B4</f>
+        <v>19.235760000068694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>2455073.4352000002</v>
+      </c>
+      <c r="C6">
+        <v>2455073.4350399999</v>
+      </c>
+      <c r="D6" s="21">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="E6">
+        <f>B6-B5</f>
+        <v>19.243470000103116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>2455111.9259899999</v>
+      </c>
+      <c r="C7">
+        <v>2455111.9262399999</v>
+      </c>
+      <c r="D7" s="21">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>2455131.1723500001</v>
+      </c>
+      <c r="C8">
+        <v>2455131.1724899998</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4.95E-4</v>
+      </c>
+      <c r="E8">
+        <f>B8-B7</f>
+        <v>19.246360000222921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>2455150.42998</v>
+      </c>
+      <c r="C9">
+        <v>2455150.4295299998</v>
+      </c>
+      <c r="D9" s="21">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="E9">
+        <f>B9-B8</f>
+        <v>19.257629999890924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>2455169.6823900002</v>
+      </c>
+      <c r="C10">
+        <v>2455169.6822000002</v>
+      </c>
+      <c r="D10" s="21">
+        <v>5.8E-4</v>
+      </c>
+      <c r="E10">
+        <f>B10-B9</f>
+        <v>19.252410000190139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>2455188.9458400002</v>
+      </c>
+      <c r="C11">
+        <v>2455188.9460300002</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5.8500000000000002E-4</v>
+      </c>
+      <c r="E11">
+        <f>B11-B10</f>
+        <v>19.263449999969453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2455208.2039200002</v>
+      </c>
+      <c r="C12">
+        <v>2455208.20414</v>
+      </c>
+      <c r="D12" s="21">
+        <v>5.2500000000000008E-4</v>
+      </c>
+      <c r="E12">
+        <f>B12-B11</f>
+        <v>19.258080000057817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>2455227.4750600001</v>
+      </c>
+      <c r="C13">
+        <v>2455227.4750899998</v>
+      </c>
+      <c r="D13" s="21">
+        <v>5.8E-4</v>
+      </c>
+      <c r="E13">
+        <f>B13-B12</f>
+        <v>19.271139999851584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>2455246.73752</v>
+      </c>
+      <c r="C14">
+        <v>2455246.73698</v>
+      </c>
+      <c r="D14" s="21">
+        <v>5.8500000000000002E-4</v>
+      </c>
+      <c r="E14">
+        <f>B14-B13</f>
+        <v>19.262459999881685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>2455266.0141599998</v>
+      </c>
+      <c r="C15">
+        <v>2455266.0148</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="E15">
+        <f>B15-B14</f>
+        <v>19.276639999821782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>2455285.2828899999</v>
+      </c>
+      <c r="C16">
+        <v>2455285.2826399999</v>
+      </c>
+      <c r="D16" s="21">
+        <v>5.4499999999999991E-4</v>
+      </c>
+      <c r="E16">
+        <f>B16-B15</f>
+        <v>19.268730000127107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>2455304.5641899998</v>
+      </c>
+      <c r="C17">
+        <v>2455304.5634900001</v>
+      </c>
+      <c r="D17" s="21">
+        <v>5.4500000000000002E-4</v>
+      </c>
+      <c r="E17">
+        <f>B17-B16</f>
+        <v>19.281299999915063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>2455323.8356499998</v>
+      </c>
+      <c r="C18">
+        <v>2455323.8362199999</v>
+      </c>
+      <c r="D18" s="21">
+        <v>6.1000000000000008E-4</v>
+      </c>
+      <c r="E18">
+        <f>B18-B17</f>
+        <v>19.271459999959916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2455343.1189600001</v>
+      </c>
+      <c r="C19">
+        <v>2455343.1183699998</v>
+      </c>
+      <c r="D19" s="21">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="E19">
+        <f>B19-B18</f>
+        <v>19.283310000319034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>2455362.3938199999</v>
+      </c>
+      <c r="C20">
+        <v>2455362.3941299999</v>
+      </c>
+      <c r="D20" s="21">
+        <v>7.1499999999999992E-4</v>
+      </c>
+      <c r="E20">
+        <f>B20-B19</f>
+        <v>19.274859999772161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>2455381.6795199998</v>
+      </c>
+      <c r="C21">
+        <v>2455381.68016</v>
+      </c>
+      <c r="D21" s="21">
+        <v>6.0499999999999996E-4</v>
+      </c>
+      <c r="E21">
+        <f>B21-B20</f>
+        <v>19.285699999891222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>2455400.95695</v>
+      </c>
+      <c r="C22">
+        <v>2455400.95682</v>
+      </c>
+      <c r="D22" s="21">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="E22">
+        <f>B22-B21</f>
+        <v>19.277430000249296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>2455420.24089</v>
+      </c>
+      <c r="C23">
+        <v>2455420.24071</v>
+      </c>
+      <c r="D23" s="21">
+        <v>5.8E-4</v>
+      </c>
+      <c r="E23">
+        <f>B23-B22</f>
+        <v>19.283939999993891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>2455439.5199000002</v>
+      </c>
+      <c r="C24">
+        <v>2455439.5196000002</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="E24">
+        <f>B24-B23</f>
+        <v>19.279010000173002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>2455458.8035599999</v>
+      </c>
+      <c r="C25">
+        <v>2455458.80302</v>
+      </c>
+      <c r="D25" s="21">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="E25">
+        <f>B25-B24</f>
+        <v>19.283659999724478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>2455478.07889</v>
+      </c>
+      <c r="C26">
+        <v>2455478.0789600001</v>
+      </c>
+      <c r="D26" s="21">
+        <v>5.8E-4</v>
+      </c>
+      <c r="E26">
+        <f>B26-B25</f>
+        <v>19.275330000091344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>2455497.3603300001</v>
+      </c>
+      <c r="C27">
+        <v>2455497.3603699999</v>
+      </c>
+      <c r="D27" s="21">
+        <v>6.0500000000000007E-4</v>
+      </c>
+      <c r="E27">
+        <f>B27-B26</f>
+        <v>19.28144000004977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>2455516.6356899999</v>
+      </c>
+      <c r="C28">
+        <v>2455516.6357800001</v>
+      </c>
+      <c r="D28" s="21">
+        <v>5.7499999999999999E-4</v>
+      </c>
+      <c r="E28">
+        <f>B28-B27</f>
+        <v>19.275359999854118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>2455535.9098200002</v>
+      </c>
+      <c r="C29">
+        <v>2455535.9099099999</v>
+      </c>
+      <c r="D29" s="21">
+        <v>5.2500000000000008E-4</v>
+      </c>
+      <c r="E29">
+        <f>B29-B28</f>
+        <v>19.274130000267178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>2455574.4517600001</v>
+      </c>
+      <c r="C30">
+        <v>2455574.4516500002</v>
+      </c>
+      <c r="D30" s="21">
+        <v>6.150000000000001E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>2455593.7231000001</v>
+      </c>
+      <c r="C31">
+        <v>2455593.7215</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="E31">
+        <f>B31-B30</f>
+        <v>19.271339999977499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>2455612.98214</v>
+      </c>
+      <c r="C32">
+        <v>2455612.9818199999</v>
+      </c>
+      <c r="D32" s="21">
+        <v>7.7000000000000007E-4</v>
+      </c>
+      <c r="E32">
+        <f>B32-B31</f>
+        <v>19.25903999991715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2455632.2430799999</v>
+      </c>
+      <c r="C33">
+        <v>2455632.2437999998</v>
+      </c>
+      <c r="D33" s="21">
+        <v>5.5499999999999994E-4</v>
+      </c>
+      <c r="E33">
+        <f>B33-B32</f>
+        <v>19.260939999949187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>2455651.4979699999</v>
+      </c>
+      <c r="C34">
+        <v>2455651.4986700001</v>
+      </c>
+      <c r="D34" s="21">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="E34">
+        <f>B34-B33</f>
+        <v>19.25488999998197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>2455670.7526400001</v>
+      </c>
+      <c r="C35">
+        <v>2455670.7528400002</v>
+      </c>
+      <c r="D35" s="21">
+        <v>6.9499999999999998E-4</v>
+      </c>
+      <c r="E35">
+        <f>B35-B34</f>
+        <v>19.254670000169426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>2455690.0013199998</v>
+      </c>
+      <c r="C36">
+        <v>2455690.0019</v>
+      </c>
+      <c r="D36" s="21">
+        <v>6.0500000000000007E-4</v>
+      </c>
+      <c r="E36">
+        <f>B36-B35</f>
+        <v>19.248679999727756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2455709.2495400002</v>
+      </c>
+      <c r="C37">
+        <v>2455709.2499699998</v>
+      </c>
+      <c r="D37" s="21">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="E37">
+        <f>B37-B36</f>
+        <v>19.24822000041604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2455728.4919599998</v>
+      </c>
+      <c r="C38">
+        <v>2455728.4912800002</v>
+      </c>
+      <c r="D38" s="21">
+        <v>5.3499999999999999E-4</v>
+      </c>
+      <c r="E38">
+        <f>B38-B37</f>
+        <v>19.242419999558479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>2455747.7319200002</v>
+      </c>
+      <c r="C39">
+        <v>2455747.7315500001</v>
+      </c>
+      <c r="D39" s="21">
+        <v>7.0500000000000001E-4</v>
+      </c>
+      <c r="E39">
+        <f>B39-B38</f>
+        <v>19.239960000384599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>2455766.9675400001</v>
+      </c>
+      <c r="C40">
+        <v>2455766.96814</v>
+      </c>
+      <c r="D40" s="21">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="E40">
+        <f>B40-B39</f>
+        <v>19.235619999933988</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>2455786.2048399998</v>
+      </c>
+      <c r="C41">
+        <v>2455786.2045100001</v>
+      </c>
+      <c r="D41" s="21">
+        <v>5.8E-4</v>
+      </c>
+      <c r="E41">
+        <f>B41-B40</f>
+        <v>19.237299999687821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>2455805.4325700002</v>
+      </c>
+      <c r="C42">
+        <v>2455805.4328999999</v>
+      </c>
+      <c r="D42" s="21">
+        <v>5.5499999999999994E-4</v>
+      </c>
+      <c r="E42">
+        <f>B42-B41</f>
+        <v>19.227730000391603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>2455824.6633100002</v>
+      </c>
+      <c r="C43">
+        <v>2455824.6632900001</v>
+      </c>
+      <c r="D43" s="21">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="E43">
+        <f>B43-B42</f>
+        <v>19.230740000028163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>2455843.8896499998</v>
+      </c>
+      <c r="C44">
+        <v>2455843.88962</v>
+      </c>
+      <c r="D44" s="21">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="E44">
+        <f>B44-B43</f>
+        <v>19.226339999586344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>2455863.1143200002</v>
+      </c>
+      <c r="C45">
+        <v>2455863.11491</v>
+      </c>
+      <c r="D45" s="21">
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="E45">
+        <f>B45-B44</f>
+        <v>19.224670000374317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>2455882.3377899998</v>
+      </c>
+      <c r="C46">
+        <v>2455882.33794</v>
+      </c>
+      <c r="D46" s="21">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="E46">
+        <f>B46-B45</f>
+        <v>19.223469999618828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47">
+        <v>2455901.5609400002</v>
+      </c>
+      <c r="C47">
+        <v>2455901.5612900001</v>
+      </c>
+      <c r="D47" s="21">
+        <v>5.4999999999999992E-4</v>
+      </c>
+      <c r="E47">
+        <f>B47-B46</f>
+        <v>19.223150000441819</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <v>2455920.7805499998</v>
+      </c>
+      <c r="C48">
+        <v>2455920.78027</v>
+      </c>
+      <c r="D48" s="21">
+        <v>5.1500000000000005E-4</v>
+      </c>
+      <c r="E48">
+        <f>B48-B47</f>
+        <v>19.219609999563545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49">
+        <v>2455940.0038700001</v>
+      </c>
+      <c r="C49">
+        <v>2455940.0038200002</v>
+      </c>
+      <c r="D49" s="21">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="E49">
+        <f>B49-B48</f>
+        <v>19.223320000339299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50">
+        <v>2455978.4424100001</v>
+      </c>
+      <c r="C50">
+        <v>2455978.4432600001</v>
+      </c>
+      <c r="D50" s="21">
+        <v>5.9000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51">
+        <v>2456016.8809099998</v>
+      </c>
+      <c r="C51">
+        <v>2456016.8807700002</v>
+      </c>
+      <c r="D51" s="21">
+        <v>5.7499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52">
+        <v>2456036.0989399999</v>
+      </c>
+      <c r="C52">
+        <v>2456036.09864</v>
+      </c>
+      <c r="D52" s="21">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="E52">
+        <f>B52-B51</f>
+        <v>19.2180300001055</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <v>2456055.31856</v>
+      </c>
+      <c r="C53">
+        <v>2456055.3192099999</v>
+      </c>
+      <c r="D53" s="21">
+        <v>5.9500000000000004E-4</v>
+      </c>
+      <c r="E53">
+        <f>B53-B52</f>
+        <v>19.219620000105351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>2456074.5385500002</v>
+      </c>
+      <c r="C54">
+        <v>2456074.53895</v>
+      </c>
+      <c r="D54" s="21">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="E54">
+        <f>B54-B53</f>
+        <v>19.219990000128746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55">
+        <v>2456093.7579299998</v>
+      </c>
+      <c r="C55">
+        <v>2456093.7582700001</v>
+      </c>
+      <c r="D55" s="21">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="E55">
+        <f>B55-B54</f>
+        <v>19.219379999674857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56">
+        <v>2456112.9775999999</v>
+      </c>
+      <c r="C56">
+        <v>2456112.97817</v>
+      </c>
+      <c r="D56" s="21">
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="E56">
+        <f>B56-B55</f>
+        <v>19.219670000020415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57">
+        <v>2456132.1967699998</v>
+      </c>
+      <c r="C57">
+        <v>2456132.1965399999</v>
+      </c>
+      <c r="D57" s="21">
+        <v>5.4999999999999992E-4</v>
+      </c>
+      <c r="E57">
+        <f>B57-B56</f>
+        <v>19.219169999938458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>2456151.4177899999</v>
+      </c>
+      <c r="C58">
+        <v>2456151.4178900002</v>
+      </c>
+      <c r="D58" s="21">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="E58">
+        <f>B58-B57</f>
+        <v>19.221020000055432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59">
+        <v>2456170.6367600001</v>
+      </c>
+      <c r="C59">
+        <v>2456170.6361199999</v>
+      </c>
+      <c r="D59" s="21">
+        <v>4.3999999999999996E-4</v>
+      </c>
+      <c r="E59">
+        <f>B59-B58</f>
+        <v>19.218970000278205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60">
+        <v>2456189.8602</v>
+      </c>
+      <c r="C60">
+        <v>2456189.8603599998</v>
+      </c>
+      <c r="D60" s="21">
+        <v>5.5499999999999994E-4</v>
+      </c>
+      <c r="E60">
+        <f>B60-B59</f>
+        <v>19.223439999856055</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61">
+        <v>2456209.0802000002</v>
+      </c>
+      <c r="C61">
+        <v>2456209.0795200001</v>
+      </c>
+      <c r="D61" s="21">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="E61">
+        <f>B61-B60</f>
+        <v>19.220000000204891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62">
+        <v>2456228.3024599999</v>
+      </c>
+      <c r="C62">
+        <v>2456228.3027400002</v>
+      </c>
+      <c r="D62" s="21">
+        <v>7.0500000000000001E-4</v>
+      </c>
+      <c r="E62">
+        <f>B62-B61</f>
+        <v>19.222259999718517</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63">
+        <v>2456266.7432800001</v>
+      </c>
+      <c r="C63">
+        <v>2456266.7432900001</v>
+      </c>
+      <c r="D63" s="21">
+        <v>5.1500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64">
+        <v>2456285.9662000001</v>
+      </c>
+      <c r="C64">
+        <v>2456285.96606</v>
+      </c>
+      <c r="D64" s="21">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="E64">
+        <f>B64-B63</f>
+        <v>19.22292000008747</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65">
+        <v>2456305.19038</v>
+      </c>
+      <c r="C65">
+        <v>2456305.1896099998</v>
+      </c>
+      <c r="D65" s="21">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E65">
+        <f>B65-B64</f>
+        <v>19.224179999902844</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>2456324.4109700001</v>
+      </c>
+      <c r="C66">
+        <v>2456324.4104800001</v>
+      </c>
+      <c r="D66" s="21">
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="E66">
+        <f>B66-B65</f>
+        <v>19.220590000040829</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67">
+        <v>2456343.6339500002</v>
+      </c>
+      <c r="C67">
+        <v>2456343.6336599998</v>
+      </c>
+      <c r="D67" s="21">
+        <v>5.2000000000000006E-4</v>
+      </c>
+      <c r="E67">
+        <f>B67-B66</f>
+        <v>19.222980000078678</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>2456362.85806</v>
+      </c>
+      <c r="C68">
+        <v>2456362.8585399999</v>
+      </c>
+      <c r="D68" s="21">
+        <v>5.3499999999999999E-4</v>
+      </c>
+      <c r="E68">
+        <f>B68-B67</f>
+        <v>19.224109999835491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69">
+        <v>2456382.0846299999</v>
+      </c>
+      <c r="C69">
+        <v>2456382.0847100001</v>
+      </c>
+      <c r="D69" s="21">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="E69">
+        <f>B69-B68</f>
+        <v>19.226569999940693</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70">
+        <v>2454969.3056600001</v>
+      </c>
+      <c r="C70">
+        <v>2454969.3059899998</v>
+      </c>
+      <c r="D70" s="21">
+        <v>7.7000000000000007E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71">
+        <v>2455008.3311600001</v>
+      </c>
+      <c r="C71">
+        <v>2455008.3316600001</v>
+      </c>
+      <c r="D71" s="21">
+        <v>7.0999999999999991E-4</v>
+      </c>
+      <c r="E71">
+        <f>B71-B70</f>
+        <v>39.025499999988824</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72">
+        <v>2455047.33665</v>
+      </c>
+      <c r="C72">
+        <v>2455047.33623</v>
+      </c>
+      <c r="D72" s="21">
+        <v>8.5000000000000006E-4</v>
+      </c>
+      <c r="E72">
+        <f>B72-B71</f>
+        <v>39.005489999894053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73">
+        <v>2455086.3191</v>
+      </c>
+      <c r="C73">
+        <v>2455086.3201000001</v>
+      </c>
+      <c r="D73" s="21">
+        <v>1.15E-3</v>
+      </c>
+      <c r="E73">
+        <f>B73-B72</f>
+        <v>38.982450000010431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74">
+        <v>2455125.264</v>
+      </c>
+      <c r="C74">
+        <v>2455125.2640900002</v>
+      </c>
+      <c r="D74" s="21">
+        <v>9.8499999999999998E-4</v>
+      </c>
+      <c r="E74">
+        <f>B74-B73</f>
+        <v>38.944900000002235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75">
+        <v>2455164.1828700001</v>
+      </c>
+      <c r="C75">
+        <v>2455164.1841199999</v>
+      </c>
+      <c r="D75" s="21">
+        <v>8.4500000000000005E-4</v>
+      </c>
+      <c r="E75">
+        <f>B75-B74</f>
+        <v>38.918870000168681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76">
+        <v>2455203.0728500001</v>
+      </c>
+      <c r="C76">
+        <v>2455203.0722500002</v>
+      </c>
+      <c r="D76" s="21">
+        <v>7.3499999999999998E-4</v>
+      </c>
+      <c r="E76">
+        <f>B76-B75</f>
+        <v>38.889979999978095</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77">
+        <v>2455241.9294099999</v>
+      </c>
+      <c r="C77">
+        <v>2455241.9301900002</v>
+      </c>
+      <c r="D77" s="21">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="E77">
+        <f>B77-B76</f>
+        <v>38.85655999975279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78">
+        <v>2455280.7659499999</v>
+      </c>
+      <c r="C78">
+        <v>2455280.76565</v>
+      </c>
+      <c r="D78" s="21">
+        <v>7.1000000000000002E-4</v>
+      </c>
+      <c r="E78">
+        <f>B78-B77</f>
+        <v>38.836540000047535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79">
+        <v>2455319.5783199999</v>
+      </c>
+      <c r="C79">
+        <v>2455319.57828</v>
+      </c>
+      <c r="D79" s="21">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E79">
+        <f>B79-B78</f>
+        <v>38.812369999941438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80">
+        <v>2455358.3775200001</v>
+      </c>
+      <c r="C80">
+        <v>2455358.3778900001</v>
+      </c>
+      <c r="D80" s="21">
+        <v>7.1499999999999992E-4</v>
+      </c>
+      <c r="E80">
+        <f>B80-B79</f>
+        <v>38.799200000241399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81">
+        <v>2455397.1692400002</v>
+      </c>
+      <c r="C81">
+        <v>2455397.1686399998</v>
+      </c>
+      <c r="D81" s="21">
+        <v>8.8499999999999994E-4</v>
+      </c>
+      <c r="E81">
+        <f>B81-B80</f>
+        <v>38.791720000095665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82">
+        <v>2455435.95866</v>
+      </c>
+      <c r="C82">
+        <v>2455435.9589</v>
+      </c>
+      <c r="D82" s="21">
+        <v>7.5500000000000003E-4</v>
+      </c>
+      <c r="E82" s="22">
+        <f>B82-B81</f>
+        <v>38.789419999811798</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83">
+        <v>2455474.7537600002</v>
+      </c>
+      <c r="C83">
+        <v>2455474.7542500002</v>
+      </c>
+      <c r="D83" s="21">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="E83">
+        <f>B83-B82</f>
+        <v>38.795100000221282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84">
+        <v>2455513.5615500002</v>
+      </c>
+      <c r="C84">
+        <v>2455513.5619000001</v>
+      </c>
+      <c r="D84" s="21">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="E84">
+        <f>B84-B83</f>
+        <v>38.807789999991655</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85">
+        <v>2455552.3860599999</v>
+      </c>
+      <c r="C85">
+        <v>2455552.3860999998</v>
+      </c>
+      <c r="D85" s="21">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="E85">
+        <f>B85-B84</f>
+        <v>38.824509999714792</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86">
+        <v>2455591.2366900002</v>
+      </c>
+      <c r="C86">
+        <v>2455591.2361300001</v>
+      </c>
+      <c r="D86" s="21">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="E86">
+        <f>B86-B85</f>
+        <v>38.85063000023365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87">
+        <v>2455630.1133099999</v>
+      </c>
+      <c r="C87">
+        <v>2455630.1137600001</v>
+      </c>
+      <c r="D87" s="21">
+        <v>8.25E-4</v>
+      </c>
+      <c r="E87">
+        <f>B87-B86</f>
+        <v>38.876619999762625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88">
+        <v>2455669.0227000001</v>
+      </c>
+      <c r="C88">
+        <v>2455669.0222499999</v>
+      </c>
+      <c r="D88" s="21">
+        <v>8.0499999999999994E-4</v>
+      </c>
+      <c r="E88">
+        <f>B88-B87</f>
+        <v>38.909390000160784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="22">
+        <v>2455746.9351900001</v>
+      </c>
+      <c r="C89">
+        <v>2455746.93487</v>
+      </c>
+      <c r="D89" s="21">
+        <v>7.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="22">
+        <v>2455785.9350399999</v>
+      </c>
+      <c r="C90">
+        <v>2455785.93585</v>
+      </c>
+      <c r="D90" s="21">
+        <v>7.1999999999999994E-4</v>
+      </c>
+      <c r="E90">
+        <f>B90-B89</f>
+        <v>38.999849999789149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="22">
+        <v>2455824.9602100002</v>
+      </c>
+      <c r="C91">
+        <v>2455824.9597800002</v>
+      </c>
+      <c r="D91" s="21">
+        <v>8.4500000000000005E-4</v>
+      </c>
+      <c r="E91">
+        <f>B91-B90</f>
+        <v>39.025170000270009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92">
+        <v>2455864.00067</v>
+      </c>
+      <c r="C92">
+        <v>2455864.0005600001</v>
+      </c>
+      <c r="D92" s="21">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="E92">
+        <f>B92-B91</f>
+        <v>39.04045999981463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93">
+        <v>2455903.0542100002</v>
+      </c>
+      <c r="C93">
+        <v>2455903.0546300001</v>
+      </c>
+      <c r="D93" s="21">
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="E93">
+        <f>B93-B92</f>
+        <v>39.053540000226349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94">
+        <v>2455942.1160300002</v>
+      </c>
+      <c r="C94">
+        <v>2455942.1172799999</v>
+      </c>
+      <c r="D94" s="21">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="E94">
+        <f>B94-B93</f>
+        <v>39.061819999944419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95">
+        <v>2455981.18462</v>
+      </c>
+      <c r="C95">
+        <v>2455981.18524</v>
+      </c>
+      <c r="D95" s="21">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="E95">
+        <f>B95-B94</f>
+        <v>39.068589999806136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96">
+        <v>2456020.2580599999</v>
+      </c>
+      <c r="C96">
+        <v>2456020.2568399999</v>
+      </c>
+      <c r="D96" s="21">
+        <v>7.6500000000000005E-4</v>
+      </c>
+      <c r="E96">
+        <f>B96-B95</f>
+        <v>39.073439999949187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97">
+        <v>2456059.3319000001</v>
+      </c>
+      <c r="C97">
+        <v>2456059.3310799999</v>
+      </c>
+      <c r="D97" s="21">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="E97">
+        <f>B97-B96</f>
+        <v>39.073840000201017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98">
+        <v>2456098.4048899999</v>
+      </c>
+      <c r="C98">
+        <v>2456098.4045000002</v>
+      </c>
+      <c r="D98" s="21">
+        <v>7.3499999999999998E-4</v>
+      </c>
+      <c r="E98">
+        <f>B98-B97</f>
+        <v>39.072989999782294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99">
+        <v>2456137.4786999999</v>
+      </c>
+      <c r="C99">
+        <v>2456137.4788799998</v>
+      </c>
+      <c r="D99" s="21">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="E99">
+        <f>B99-B98</f>
+        <v>39.073809999972582</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100">
+        <v>2456176.5539699998</v>
+      </c>
+      <c r="C100">
+        <v>2456176.5534799998</v>
+      </c>
+      <c r="D100" s="21">
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="E100" s="22">
+        <f>B100-B99</f>
+        <v>39.075269999913871</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101">
+        <v>2456215.6271799998</v>
+      </c>
+      <c r="C101">
+        <v>2456215.6258399999</v>
+      </c>
+      <c r="D101" s="21">
+        <v>6.6500000000000001E-4</v>
+      </c>
+      <c r="E101">
+        <f>B101-B100</f>
+        <v>39.073210000060499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102">
+        <v>2456254.6964500002</v>
+      </c>
+      <c r="C102">
+        <v>2456254.6963200001</v>
+      </c>
+      <c r="D102" s="21">
+        <v>7.85E-4</v>
+      </c>
+      <c r="E102">
+        <f>B102-B101</f>
+        <v>39.069270000327379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103">
+        <v>2456293.7677699998</v>
+      </c>
+      <c r="C103">
+        <v>2456293.7678399999</v>
+      </c>
+      <c r="D103" s="21">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="E103">
+        <f>B103-B102</f>
+        <v>39.071319999638945</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104">
+        <v>2456332.8347200002</v>
+      </c>
+      <c r="C104">
+        <v>2456332.8348099999</v>
+      </c>
+      <c r="D104" s="21">
+        <v>7.45E-4</v>
+      </c>
+      <c r="E104">
+        <f>B104-B103</f>
+        <v>39.066950000356883</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105">
+        <v>2456371.9027</v>
+      </c>
+      <c r="C105">
+        <v>2456371.9022599999</v>
+      </c>
+      <c r="D105" s="21">
+        <v>7.2499999999999995E-4</v>
+      </c>
+      <c r="E105">
+        <f>B105-B104</f>
+        <v>39.067979999817908</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
+    <sortCondition ref="A3:A105"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E5C3A0-141D-4A8B-B32C-FCC88ACF62EC}">
+  <dimension ref="A1:C105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="21">
+        <v>2454977.2496199999</v>
+      </c>
+      <c r="C2" s="21">
+        <v>5.3499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2454996.4842300001</v>
+      </c>
+      <c r="C3" s="21">
+        <v>6.7500000000000004E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="21">
+        <v>2455034.95597</v>
+      </c>
+      <c r="C4" s="21">
+        <v>5.5999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="21">
+        <v>2455054.1917300001</v>
+      </c>
+      <c r="C5" s="21">
+        <v>6.1000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2455073.4352000002</v>
+      </c>
+      <c r="C6" s="21">
+        <v>9.7499999999999996E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="21">
+        <v>2455111.9259899999</v>
+      </c>
+      <c r="C7" s="21">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="21">
+        <v>2455131.1723500001</v>
+      </c>
+      <c r="C8" s="21">
+        <v>4.95E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="21">
+        <v>2455150.42998</v>
+      </c>
+      <c r="C9" s="21">
+        <v>5.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2455169.6823900002</v>
+      </c>
+      <c r="C10" s="21">
+        <v>5.8E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2455188.9458400002</v>
+      </c>
+      <c r="C11" s="21">
+        <v>5.8500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="21">
+        <v>2455208.2039200002</v>
+      </c>
+      <c r="C12" s="21">
+        <v>5.2500000000000008E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="21">
+        <v>2455227.4750600001</v>
+      </c>
+      <c r="C13" s="21">
+        <v>5.8E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2455246.73752</v>
+      </c>
+      <c r="C14" s="21">
+        <v>5.8500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="21">
+        <v>2455266.0141599998</v>
+      </c>
+      <c r="C15" s="21">
+        <v>6.0999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="21">
+        <v>2455285.2828899999</v>
+      </c>
+      <c r="C16" s="21">
+        <v>5.4499999999999991E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="21">
+        <v>2455304.5641899998</v>
+      </c>
+      <c r="C17" s="21">
+        <v>5.4500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="21">
+        <v>2455323.8356499998</v>
+      </c>
+      <c r="C18" s="21">
+        <v>6.1000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="21">
+        <v>2455343.1189600001</v>
+      </c>
+      <c r="C19" s="21">
+        <v>5.9000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="21">
+        <v>2455362.3938199999</v>
+      </c>
+      <c r="C20" s="21">
+        <v>7.1499999999999992E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="21">
+        <v>2455381.6795199998</v>
+      </c>
+      <c r="C21" s="21">
+        <v>6.0499999999999996E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="21">
+        <v>2455400.95695</v>
+      </c>
+      <c r="C22" s="21">
+        <v>5.5999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="21">
+        <v>2455420.24089</v>
+      </c>
+      <c r="C23" s="21">
+        <v>5.8E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="21">
+        <v>2455439.5199000002</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1.4499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="21">
+        <v>2455458.8035599999</v>
+      </c>
+      <c r="C25" s="21">
+        <v>8.4000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="21">
+        <v>2455478.07889</v>
+      </c>
+      <c r="C26" s="21">
+        <v>5.8E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="21">
+        <v>2455497.3603300001</v>
+      </c>
+      <c r="C27" s="21">
+        <v>6.0500000000000007E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="21">
+        <v>2455516.6356899999</v>
+      </c>
+      <c r="C28" s="21">
+        <v>5.7499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="21">
+        <v>2455535.9098200002</v>
+      </c>
+      <c r="C29" s="21">
+        <v>5.2500000000000008E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="21">
+        <v>2455574.4517600001</v>
+      </c>
+      <c r="C30" s="21">
+        <v>6.150000000000001E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="21">
+        <v>2455593.7231000001</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1.9499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="21">
+        <v>2455612.98214</v>
+      </c>
+      <c r="C32" s="21">
+        <v>7.7000000000000007E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="21">
+        <v>2455632.2430799999</v>
+      </c>
+      <c r="C33" s="21">
+        <v>5.5499999999999994E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="21">
+        <v>2455651.4979699999</v>
+      </c>
+      <c r="C34" s="21">
+        <v>5.9000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="21">
+        <v>2455670.7526400001</v>
+      </c>
+      <c r="C35" s="21">
+        <v>6.9499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="21">
+        <v>2455690.0013199998</v>
+      </c>
+      <c r="C36" s="21">
+        <v>6.0500000000000007E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21">
+        <v>2455709.2495400002</v>
+      </c>
+      <c r="C37" s="21">
+        <v>5.5999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="21">
+        <v>2455728.4919599998</v>
+      </c>
+      <c r="C38" s="21">
+        <v>5.3499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="21">
+        <v>2455747.7319200002</v>
+      </c>
+      <c r="C39" s="21">
+        <v>7.0500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="21">
+        <v>2455766.9675400001</v>
+      </c>
+      <c r="C40" s="21">
+        <v>6.4999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="21">
+        <v>2455786.2048399998</v>
+      </c>
+      <c r="C41" s="21">
+        <v>5.8E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="21">
+        <v>2455805.4325700002</v>
+      </c>
+      <c r="C42" s="21">
+        <v>5.5499999999999994E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="21">
+        <v>2455824.6633100002</v>
+      </c>
+      <c r="C43" s="21">
+        <v>5.6999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="21">
+        <v>2455843.8896499998</v>
+      </c>
+      <c r="C44" s="21">
+        <v>4.8999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="21">
+        <v>2455863.1143200002</v>
+      </c>
+      <c r="C45" s="21">
+        <v>6.2500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="21">
+        <v>2455882.3377899998</v>
+      </c>
+      <c r="C46" s="21">
+        <v>5.0500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="21">
+        <v>2455901.5609400002</v>
+      </c>
+      <c r="C47" s="21">
+        <v>5.4999999999999992E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="21">
+        <v>2455920.7805499998</v>
+      </c>
+      <c r="C48" s="21">
+        <v>5.1500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="21">
+        <v>2455940.0038700001</v>
+      </c>
+      <c r="C49" s="21">
+        <v>5.6999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="21">
+        <v>2455978.4424100001</v>
+      </c>
+      <c r="C50" s="21">
+        <v>5.9000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="21">
+        <v>2456016.8809099998</v>
+      </c>
+      <c r="C51" s="21">
+        <v>5.7499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="21">
+        <v>2456036.0989399999</v>
+      </c>
+      <c r="C52" s="21">
+        <v>7.2000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="21">
+        <v>2456055.31856</v>
+      </c>
+      <c r="C53" s="21">
+        <v>5.9500000000000004E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="21">
+        <v>2456074.5385500002</v>
+      </c>
+      <c r="C54" s="21">
+        <v>6.0999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="21">
+        <v>2456093.7579299998</v>
+      </c>
+      <c r="C55" s="21">
+        <v>6.0000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="21">
+        <v>2456112.9775999999</v>
+      </c>
+      <c r="C56" s="21">
+        <v>5.6499999999999996E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="21">
+        <v>2456132.1967699998</v>
+      </c>
+      <c r="C57" s="21">
+        <v>5.4999999999999992E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="21">
+        <v>2456151.4177899999</v>
+      </c>
+      <c r="C58" s="21">
+        <v>6.3000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="21">
+        <v>2456170.6367600001</v>
+      </c>
+      <c r="C59" s="21">
+        <v>4.3999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="21">
+        <v>2456189.8602</v>
+      </c>
+      <c r="C60" s="21">
+        <v>5.5499999999999994E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="21">
+        <v>2456209.0802000002</v>
+      </c>
+      <c r="C61" s="21">
+        <v>5.2999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="21">
+        <v>2456228.3024599999</v>
+      </c>
+      <c r="C62" s="21">
+        <v>7.0500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="21">
+        <v>2456266.7432800001</v>
+      </c>
+      <c r="C63" s="21">
+        <v>5.1500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="21">
+        <v>2456285.9662000001</v>
+      </c>
+      <c r="C64" s="21">
+        <v>5.1000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="21">
+        <v>2456305.19038</v>
+      </c>
+      <c r="C65" s="21">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="21">
+        <v>2456324.4109700001</v>
+      </c>
+      <c r="C66" s="21">
+        <v>5.6499999999999996E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="21">
+        <v>2456343.6339500002</v>
+      </c>
+      <c r="C67" s="21">
+        <v>5.2000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="21">
+        <v>2456362.85806</v>
+      </c>
+      <c r="C68" s="21">
+        <v>5.3499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="21">
+        <v>2456382.0846299999</v>
+      </c>
+      <c r="C69" s="21">
+        <v>6.8000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="21">
+        <v>2454969.3056600001</v>
+      </c>
+      <c r="C70" s="21">
+        <v>7.7000000000000007E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="21">
+        <v>2455008.3311600001</v>
+      </c>
+      <c r="C71" s="21">
+        <v>7.0999999999999991E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="21">
+        <v>2455047.33665</v>
+      </c>
+      <c r="C72" s="21">
+        <v>8.5000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="21">
+        <v>2455086.3191</v>
+      </c>
+      <c r="C73" s="21">
+        <v>1.15E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="21">
+        <v>2455125.264</v>
+      </c>
+      <c r="C74" s="21">
+        <v>9.8499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="21">
+        <v>2455164.1828700001</v>
+      </c>
+      <c r="C75" s="21">
+        <v>8.4500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="21">
+        <v>2455203.0728500001</v>
+      </c>
+      <c r="C76" s="21">
+        <v>7.3499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="21">
+        <v>2455241.9294099999</v>
+      </c>
+      <c r="C77" s="21">
+        <v>7.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="21">
+        <v>2455280.7659499999</v>
+      </c>
+      <c r="C78" s="21">
+        <v>7.1000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="21">
+        <v>2455319.5783199999</v>
+      </c>
+      <c r="C79" s="21">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="21">
+        <v>2455358.3775200001</v>
+      </c>
+      <c r="C80" s="21">
+        <v>7.1499999999999992E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="21">
+        <v>2455397.1692400002</v>
+      </c>
+      <c r="C81" s="21">
+        <v>8.8499999999999994E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="21">
+        <v>2455435.95866</v>
+      </c>
+      <c r="C82" s="21">
+        <v>7.5500000000000003E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="21">
+        <v>2455474.7537600002</v>
+      </c>
+      <c r="C83" s="21">
+        <v>1.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="21">
+        <v>2455513.5615500002</v>
+      </c>
+      <c r="C84" s="21">
+        <v>7.2000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="21">
+        <v>2455552.3860599999</v>
+      </c>
+      <c r="C85" s="21">
+        <v>9.3000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="21">
+        <v>2455591.2366900002</v>
+      </c>
+      <c r="C86" s="21">
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="21">
+        <v>2455630.1133099999</v>
+      </c>
+      <c r="C87" s="21">
+        <v>8.25E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" s="21">
+        <v>2455669.0227000001</v>
+      </c>
+      <c r="C88" s="21">
+        <v>8.0499999999999994E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="25">
+        <v>2455746.9351900001</v>
+      </c>
+      <c r="C89" s="21">
+        <v>7.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="25">
+        <v>2455785.9350399999</v>
+      </c>
+      <c r="C90" s="21">
+        <v>7.1999999999999994E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="25">
+        <v>2455824.9602100002</v>
+      </c>
+      <c r="C91" s="21">
+        <v>8.4500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="21">
+        <v>2455864.00067</v>
+      </c>
+      <c r="C92" s="21">
+        <v>6.7500000000000004E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="21">
+        <v>2455903.0542100002</v>
+      </c>
+      <c r="C93" s="21">
+        <v>9.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="21">
+        <v>2455942.1160300002</v>
+      </c>
+      <c r="C94" s="21">
+        <v>7.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="21">
+        <v>2455981.18462</v>
+      </c>
+      <c r="C95" s="21">
+        <v>7.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="21">
+        <v>2456020.2580599999</v>
+      </c>
+      <c r="C96" s="21">
+        <v>7.6500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="21">
+        <v>2456059.3319000001</v>
+      </c>
+      <c r="C97" s="21">
+        <v>7.3999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="21">
+        <v>2456098.4048899999</v>
+      </c>
+      <c r="C98" s="21">
+        <v>7.3499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="21">
+        <v>2456137.4786999999</v>
+      </c>
+      <c r="C99" s="21">
+        <v>1.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="21">
+        <v>2456176.5539699998</v>
+      </c>
+      <c r="C100" s="21">
+        <v>7.6000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" s="21">
+        <v>2456215.6271799998</v>
+      </c>
+      <c r="C101" s="21">
+        <v>6.6500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="21">
+        <v>2456254.6964500002</v>
+      </c>
+      <c r="C102" s="21">
+        <v>7.85E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="21">
+        <v>2456293.7677699998</v>
+      </c>
+      <c r="C103" s="21">
+        <v>6.8000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="21">
+        <v>2456332.8347200002</v>
+      </c>
+      <c r="C104" s="21">
+        <v>7.45E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="21">
+        <v>2456371.9027</v>
+      </c>
+      <c r="C105" s="21">
+        <v>7.2499999999999995E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/Kepler9.xlsx
+++ b/results/Kepler9.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFDC00D-E93F-4BF1-80AB-F42876BE52AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E057ED5-FD9C-4F36-B394-AEA7C322365D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{98936307-1AC5-4379-A05D-810F04CE2DDF}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="Params" sheetId="6" r:id="rId3"/>
-    <sheet name="Tmid" sheetId="5" r:id="rId4"/>
-    <sheet name="TT" sheetId="8" r:id="rId5"/>
+    <sheet name="post Kepler 1" sheetId="1" r:id="rId1"/>
+    <sheet name="post Kepler 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Kepler TT" sheetId="8" r:id="rId3"/>
+    <sheet name="TT Residuen" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="27">
   <si>
     <t>TT</t>
   </si>
@@ -96,51 +95,6 @@
     <t>Kepler9c</t>
   </si>
   <si>
-    <t xml:space="preserve">Tmid 3 800,15785 800,15795 ±0,00026 </t>
-  </si>
-  <si>
-    <t>param BestFit 50% 1σ range param BestFit 50% 1σ range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Pb[d] 19,2471658 19,2471669 +0,0000035 −0,0000036 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ab/R∗ 25,00 24,95 +0,17 −0,16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rb/R∗ 0,082483 0,082515 +0,000099 −0,000107 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bb/R∗ 0,7803 0,7812 +0,0033 −0,0036 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Linear Pc[d] 38,944030 38,944011 ±0,000012 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ac/R∗ 40,00 39,91 +0,27 −0,25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rc/R∗ 0,07963 0,07964 +0,00013 −0,00015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bc/R∗ 0,8619 0,8624 +0,0019 −0,0023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pd 1,59295922 1,59295878 +0,00000109 −0,00000095 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Linear </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ad/R∗ 4,748 4,738 +0,032 −0,030 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rd/R∗ 0,01508 0,01517 ±0,00013 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bd/R∗ 0,6955 0,6951 +0,0064 −0,0075 </t>
-  </si>
-  <si>
     <t>Planet</t>
   </si>
   <si>
@@ -156,22 +110,36 @@
     <t>KEPLER9c</t>
   </si>
   <si>
-    <t>P</t>
+    <r>
+      <t>"KEPLER9c"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
   </si>
   <si>
-    <t>b</t>
+    <r>
+      <t>"KEPLER9b"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
   </si>
   <si>
-    <t>c</t>
+    <t>Transits vor 2455088.212 gingen nicht in diesen Fit ein, weil die Bahn-Parameter auf diese Epoche bezogen sind.</t>
   </si>
   <si>
-    <t>ø</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
+    <t>Transits nach Kepler gingen ebenfalls nicht ein.</t>
   </si>
 </sst>
 </file>
@@ -180,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +173,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,14 +223,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -261,31 +241,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -323,21 +283,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -353,6 +312,1201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Max Likelihood Residuen der TT aus MCMC-fit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TT Residuen'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>"KEPLER9b",</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'TT Residuen'!$A$2:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>6.2306411564350101E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2567220255732501E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6781548038125E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.6542130187153805E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1879823654890001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9929418340325301E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4579075872898102E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2376925274729696E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6694422811269701E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0331720113754201E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.7848754376172998E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5870866850018501E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8267426639795301E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1327746324241101E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>5.3766183555126102E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8403539434075301E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6149480193853302E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7674313858151401E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.2043761610984802E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.8177883774042108E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.0537042766809398E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.0607767924666405E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5459573417901895E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6513699665665599E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.7037065960466801E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.9075285419821701E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.5868335291743203E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4508367106318398E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1051657646894401E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9025675505399699E-4</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>4.1231513023376397E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.0245675221085501E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.1974784582853296E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.9041728228330601E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.78408762440085E-3</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>4.2282044887542698E-7</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00E+00">
+                  <c:v>-1.18464231491088E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.04403356090188E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.03128887712955E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.93317886441946E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9439834654331202E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0359063744544901E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-6.42694998532533E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.8364034369587898E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.32057350128889E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.4247981905937195E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.6269794479012403E-4</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00E+00">
+                  <c:v>-6.1258208006620394E-5</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00E+00">
+                  <c:v>-6.3952058553695597E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3255327939987101E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6414911523461298E-4</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00E+00">
+                  <c:v>7.6460186392068795E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0453741997480299E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.2071048840880301E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-8.5316598415374702E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.3075228780508E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1128899641335E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.2995454967021899E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.53164518997073E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8379371613264E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.5497321560978803E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9305571913719101E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.8621594645082901E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F282-4353-9805-5F185EDC329D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TT Residuen'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>"KEPLER9c",</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'TT Residuen'!$B$2:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>1.7838273197412399E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3514574170112599E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.41823897138237E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3873656280338699E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.13887200132012E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8699496760964301E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8944354057312001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0274769738316499E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6324789077043501E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6423119753599102E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-1.15856528282165E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1484083309769598E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.9162308722734397E-4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>-2.09077261388301E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.1605142652988401E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7052050679922101E-4</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>2.8131064027547799E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.14694440364837E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.5098685398697801E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.4837064817547798E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1347536928951699E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.76815781742334E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6623201817273996E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3477181568741798E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.16347335278987E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9843478053808201E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3369959779083701E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.0916960202157402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1720177978277201E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.47116666287183E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6041980125010001E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.52966976910829E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F282-4353-9805-5F185EDC329D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="926229663"/>
+        <c:axId val="926228703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="926229663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926228703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="926228703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926229663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,6 +1773,49 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C617116-4369-451E-8EA1-7C6734F631DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2185,2013 +3382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E27F8D-B642-4978-AEF4-48C481445686}">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476C7196-2387-4257-8B53-A03D0ADEFB53}">
-  <dimension ref="A1:I105"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>2454977.2496199999</v>
-      </c>
-      <c r="C2">
-        <v>2454977.2496799999</v>
-      </c>
-      <c r="D2" s="21">
-        <v>5.3499999999999999E-4</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2">
-        <v>19.22</v>
-      </c>
-      <c r="I2">
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>2454996.4842300001</v>
-      </c>
-      <c r="C3">
-        <v>2454996.4843600001</v>
-      </c>
-      <c r="D3" s="21">
-        <v>6.7500000000000004E-4</v>
-      </c>
-      <c r="E3">
-        <f>B3-B2</f>
-        <v>19.234610000159591</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="17">
-        <v>19.25</v>
-      </c>
-      <c r="I3">
-        <v>38.950000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>2455034.95597</v>
-      </c>
-      <c r="C4">
-        <v>2455034.9554499998</v>
-      </c>
-      <c r="D4" s="21">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4">
-        <v>19.29</v>
-      </c>
-      <c r="I4">
-        <v>39.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>2455054.1917300001</v>
-      </c>
-      <c r="C5">
-        <v>2455054.1912400001</v>
-      </c>
-      <c r="D5" s="21">
-        <v>6.1000000000000008E-4</v>
-      </c>
-      <c r="E5">
-        <f>B5-B4</f>
-        <v>19.235760000068694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>2455073.4352000002</v>
-      </c>
-      <c r="C6">
-        <v>2455073.4350399999</v>
-      </c>
-      <c r="D6" s="21">
-        <v>9.7499999999999996E-4</v>
-      </c>
-      <c r="E6">
-        <f>B6-B5</f>
-        <v>19.243470000103116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>2455111.9259899999</v>
-      </c>
-      <c r="C7">
-        <v>2455111.9262399999</v>
-      </c>
-      <c r="D7" s="21">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>2455131.1723500001</v>
-      </c>
-      <c r="C8">
-        <v>2455131.1724899998</v>
-      </c>
-      <c r="D8" s="21">
-        <v>4.95E-4</v>
-      </c>
-      <c r="E8">
-        <f>B8-B7</f>
-        <v>19.246360000222921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>2455150.42998</v>
-      </c>
-      <c r="C9">
-        <v>2455150.4295299998</v>
-      </c>
-      <c r="D9" s="21">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="E9">
-        <f>B9-B8</f>
-        <v>19.257629999890924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>2455169.6823900002</v>
-      </c>
-      <c r="C10">
-        <v>2455169.6822000002</v>
-      </c>
-      <c r="D10" s="21">
-        <v>5.8E-4</v>
-      </c>
-      <c r="E10">
-        <f>B10-B9</f>
-        <v>19.252410000190139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>2455188.9458400002</v>
-      </c>
-      <c r="C11">
-        <v>2455188.9460300002</v>
-      </c>
-      <c r="D11" s="21">
-        <v>5.8500000000000002E-4</v>
-      </c>
-      <c r="E11">
-        <f>B11-B10</f>
-        <v>19.263449999969453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>2455208.2039200002</v>
-      </c>
-      <c r="C12">
-        <v>2455208.20414</v>
-      </c>
-      <c r="D12" s="21">
-        <v>5.2500000000000008E-4</v>
-      </c>
-      <c r="E12">
-        <f>B12-B11</f>
-        <v>19.258080000057817</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>2455227.4750600001</v>
-      </c>
-      <c r="C13">
-        <v>2455227.4750899998</v>
-      </c>
-      <c r="D13" s="21">
-        <v>5.8E-4</v>
-      </c>
-      <c r="E13">
-        <f>B13-B12</f>
-        <v>19.271139999851584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>2455246.73752</v>
-      </c>
-      <c r="C14">
-        <v>2455246.73698</v>
-      </c>
-      <c r="D14" s="21">
-        <v>5.8500000000000002E-4</v>
-      </c>
-      <c r="E14">
-        <f>B14-B13</f>
-        <v>19.262459999881685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>2455266.0141599998</v>
-      </c>
-      <c r="C15">
-        <v>2455266.0148</v>
-      </c>
-      <c r="D15" s="21">
-        <v>6.0999999999999997E-4</v>
-      </c>
-      <c r="E15">
-        <f>B15-B14</f>
-        <v>19.276639999821782</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>2455285.2828899999</v>
-      </c>
-      <c r="C16">
-        <v>2455285.2826399999</v>
-      </c>
-      <c r="D16" s="21">
-        <v>5.4499999999999991E-4</v>
-      </c>
-      <c r="E16">
-        <f>B16-B15</f>
-        <v>19.268730000127107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <v>2455304.5641899998</v>
-      </c>
-      <c r="C17">
-        <v>2455304.5634900001</v>
-      </c>
-      <c r="D17" s="21">
-        <v>5.4500000000000002E-4</v>
-      </c>
-      <c r="E17">
-        <f>B17-B16</f>
-        <v>19.281299999915063</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>2455323.8356499998</v>
-      </c>
-      <c r="C18">
-        <v>2455323.8362199999</v>
-      </c>
-      <c r="D18" s="21">
-        <v>6.1000000000000008E-4</v>
-      </c>
-      <c r="E18">
-        <f>B18-B17</f>
-        <v>19.271459999959916</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19">
-        <v>2455343.1189600001</v>
-      </c>
-      <c r="C19">
-        <v>2455343.1183699998</v>
-      </c>
-      <c r="D19" s="21">
-        <v>5.9000000000000003E-4</v>
-      </c>
-      <c r="E19">
-        <f>B19-B18</f>
-        <v>19.283310000319034</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>2455362.3938199999</v>
-      </c>
-      <c r="C20">
-        <v>2455362.3941299999</v>
-      </c>
-      <c r="D20" s="21">
-        <v>7.1499999999999992E-4</v>
-      </c>
-      <c r="E20">
-        <f>B20-B19</f>
-        <v>19.274859999772161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21">
-        <v>2455381.6795199998</v>
-      </c>
-      <c r="C21">
-        <v>2455381.68016</v>
-      </c>
-      <c r="D21" s="21">
-        <v>6.0499999999999996E-4</v>
-      </c>
-      <c r="E21">
-        <f>B21-B20</f>
-        <v>19.285699999891222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>2455400.95695</v>
-      </c>
-      <c r="C22">
-        <v>2455400.95682</v>
-      </c>
-      <c r="D22" s="21">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="E22">
-        <f>B22-B21</f>
-        <v>19.277430000249296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>2455420.24089</v>
-      </c>
-      <c r="C23">
-        <v>2455420.24071</v>
-      </c>
-      <c r="D23" s="21">
-        <v>5.8E-4</v>
-      </c>
-      <c r="E23">
-        <f>B23-B22</f>
-        <v>19.283939999993891</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24">
-        <v>2455439.5199000002</v>
-      </c>
-      <c r="C24">
-        <v>2455439.5196000002</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1.4499999999999999E-3</v>
-      </c>
-      <c r="E24">
-        <f>B24-B23</f>
-        <v>19.279010000173002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
-        <v>2455458.8035599999</v>
-      </c>
-      <c r="C25">
-        <v>2455458.80302</v>
-      </c>
-      <c r="D25" s="21">
-        <v>8.4000000000000003E-4</v>
-      </c>
-      <c r="E25">
-        <f>B25-B24</f>
-        <v>19.283659999724478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <v>2455478.07889</v>
-      </c>
-      <c r="C26">
-        <v>2455478.0789600001</v>
-      </c>
-      <c r="D26" s="21">
-        <v>5.8E-4</v>
-      </c>
-      <c r="E26">
-        <f>B26-B25</f>
-        <v>19.275330000091344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>2455497.3603300001</v>
-      </c>
-      <c r="C27">
-        <v>2455497.3603699999</v>
-      </c>
-      <c r="D27" s="21">
-        <v>6.0500000000000007E-4</v>
-      </c>
-      <c r="E27">
-        <f>B27-B26</f>
-        <v>19.28144000004977</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
-        <v>2455516.6356899999</v>
-      </c>
-      <c r="C28">
-        <v>2455516.6357800001</v>
-      </c>
-      <c r="D28" s="21">
-        <v>5.7499999999999999E-4</v>
-      </c>
-      <c r="E28">
-        <f>B28-B27</f>
-        <v>19.275359999854118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
-        <v>2455535.9098200002</v>
-      </c>
-      <c r="C29">
-        <v>2455535.9099099999</v>
-      </c>
-      <c r="D29" s="21">
-        <v>5.2500000000000008E-4</v>
-      </c>
-      <c r="E29">
-        <f>B29-B28</f>
-        <v>19.274130000267178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30">
-        <v>2455574.4517600001</v>
-      </c>
-      <c r="C30">
-        <v>2455574.4516500002</v>
-      </c>
-      <c r="D30" s="21">
-        <v>6.150000000000001E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>2455593.7231000001</v>
-      </c>
-      <c r="C31">
-        <v>2455593.7215</v>
-      </c>
-      <c r="D31" s="21">
-        <v>1.9499999999999999E-3</v>
-      </c>
-      <c r="E31">
-        <f>B31-B30</f>
-        <v>19.271339999977499</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>2455612.98214</v>
-      </c>
-      <c r="C32">
-        <v>2455612.9818199999</v>
-      </c>
-      <c r="D32" s="21">
-        <v>7.7000000000000007E-4</v>
-      </c>
-      <c r="E32">
-        <f>B32-B31</f>
-        <v>19.25903999991715</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>2455632.2430799999</v>
-      </c>
-      <c r="C33">
-        <v>2455632.2437999998</v>
-      </c>
-      <c r="D33" s="21">
-        <v>5.5499999999999994E-4</v>
-      </c>
-      <c r="E33">
-        <f>B33-B32</f>
-        <v>19.260939999949187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>2455651.4979699999</v>
-      </c>
-      <c r="C34">
-        <v>2455651.4986700001</v>
-      </c>
-      <c r="D34" s="21">
-        <v>5.9000000000000003E-4</v>
-      </c>
-      <c r="E34">
-        <f>B34-B33</f>
-        <v>19.25488999998197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>2455670.7526400001</v>
-      </c>
-      <c r="C35">
-        <v>2455670.7528400002</v>
-      </c>
-      <c r="D35" s="21">
-        <v>6.9499999999999998E-4</v>
-      </c>
-      <c r="E35">
-        <f>B35-B34</f>
-        <v>19.254670000169426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>2455690.0013199998</v>
-      </c>
-      <c r="C36">
-        <v>2455690.0019</v>
-      </c>
-      <c r="D36" s="21">
-        <v>6.0500000000000007E-4</v>
-      </c>
-      <c r="E36">
-        <f>B36-B35</f>
-        <v>19.248679999727756</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2455709.2495400002</v>
-      </c>
-      <c r="C37">
-        <v>2455709.2499699998</v>
-      </c>
-      <c r="D37" s="21">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="E37">
-        <f>B37-B36</f>
-        <v>19.24822000041604</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>2455728.4919599998</v>
-      </c>
-      <c r="C38">
-        <v>2455728.4912800002</v>
-      </c>
-      <c r="D38" s="21">
-        <v>5.3499999999999999E-4</v>
-      </c>
-      <c r="E38">
-        <f>B38-B37</f>
-        <v>19.242419999558479</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>2455747.7319200002</v>
-      </c>
-      <c r="C39">
-        <v>2455747.7315500001</v>
-      </c>
-      <c r="D39" s="21">
-        <v>7.0500000000000001E-4</v>
-      </c>
-      <c r="E39">
-        <f>B39-B38</f>
-        <v>19.239960000384599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40">
-        <v>2455766.9675400001</v>
-      </c>
-      <c r="C40">
-        <v>2455766.96814</v>
-      </c>
-      <c r="D40" s="21">
-        <v>6.4999999999999997E-4</v>
-      </c>
-      <c r="E40">
-        <f>B40-B39</f>
-        <v>19.235619999933988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41">
-        <v>2455786.2048399998</v>
-      </c>
-      <c r="C41">
-        <v>2455786.2045100001</v>
-      </c>
-      <c r="D41" s="21">
-        <v>5.8E-4</v>
-      </c>
-      <c r="E41">
-        <f>B41-B40</f>
-        <v>19.237299999687821</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42">
-        <v>2455805.4325700002</v>
-      </c>
-      <c r="C42">
-        <v>2455805.4328999999</v>
-      </c>
-      <c r="D42" s="21">
-        <v>5.5499999999999994E-4</v>
-      </c>
-      <c r="E42">
-        <f>B42-B41</f>
-        <v>19.227730000391603</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43">
-        <v>2455824.6633100002</v>
-      </c>
-      <c r="C43">
-        <v>2455824.6632900001</v>
-      </c>
-      <c r="D43" s="21">
-        <v>5.6999999999999998E-4</v>
-      </c>
-      <c r="E43">
-        <f>B43-B42</f>
-        <v>19.230740000028163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44">
-        <v>2455843.8896499998</v>
-      </c>
-      <c r="C44">
-        <v>2455843.88962</v>
-      </c>
-      <c r="D44" s="21">
-        <v>4.8999999999999998E-4</v>
-      </c>
-      <c r="E44">
-        <f>B44-B43</f>
-        <v>19.226339999586344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45">
-        <v>2455863.1143200002</v>
-      </c>
-      <c r="C45">
-        <v>2455863.11491</v>
-      </c>
-      <c r="D45" s="21">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="E45">
-        <f>B45-B44</f>
-        <v>19.224670000374317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46">
-        <v>2455882.3377899998</v>
-      </c>
-      <c r="C46">
-        <v>2455882.33794</v>
-      </c>
-      <c r="D46" s="21">
-        <v>5.0500000000000002E-4</v>
-      </c>
-      <c r="E46">
-        <f>B46-B45</f>
-        <v>19.223469999618828</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47">
-        <v>2455901.5609400002</v>
-      </c>
-      <c r="C47">
-        <v>2455901.5612900001</v>
-      </c>
-      <c r="D47" s="21">
-        <v>5.4999999999999992E-4</v>
-      </c>
-      <c r="E47">
-        <f>B47-B46</f>
-        <v>19.223150000441819</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48">
-        <v>2455920.7805499998</v>
-      </c>
-      <c r="C48">
-        <v>2455920.78027</v>
-      </c>
-      <c r="D48" s="21">
-        <v>5.1500000000000005E-4</v>
-      </c>
-      <c r="E48">
-        <f>B48-B47</f>
-        <v>19.219609999563545</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49">
-        <v>2455940.0038700001</v>
-      </c>
-      <c r="C49">
-        <v>2455940.0038200002</v>
-      </c>
-      <c r="D49" s="21">
-        <v>5.6999999999999998E-4</v>
-      </c>
-      <c r="E49">
-        <f>B49-B48</f>
-        <v>19.223320000339299</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50">
-        <v>2455978.4424100001</v>
-      </c>
-      <c r="C50">
-        <v>2455978.4432600001</v>
-      </c>
-      <c r="D50" s="21">
-        <v>5.9000000000000003E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51">
-        <v>2456016.8809099998</v>
-      </c>
-      <c r="C51">
-        <v>2456016.8807700002</v>
-      </c>
-      <c r="D51" s="21">
-        <v>5.7499999999999999E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52">
-        <v>2456036.0989399999</v>
-      </c>
-      <c r="C52">
-        <v>2456036.09864</v>
-      </c>
-      <c r="D52" s="21">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="E52">
-        <f>B52-B51</f>
-        <v>19.2180300001055</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53">
-        <v>2456055.31856</v>
-      </c>
-      <c r="C53">
-        <v>2456055.3192099999</v>
-      </c>
-      <c r="D53" s="21">
-        <v>5.9500000000000004E-4</v>
-      </c>
-      <c r="E53">
-        <f>B53-B52</f>
-        <v>19.219620000105351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54">
-        <v>2456074.5385500002</v>
-      </c>
-      <c r="C54">
-        <v>2456074.53895</v>
-      </c>
-      <c r="D54" s="21">
-        <v>6.0999999999999997E-4</v>
-      </c>
-      <c r="E54">
-        <f>B54-B53</f>
-        <v>19.219990000128746</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55">
-        <v>2456093.7579299998</v>
-      </c>
-      <c r="C55">
-        <v>2456093.7582700001</v>
-      </c>
-      <c r="D55" s="21">
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="E55">
-        <f>B55-B54</f>
-        <v>19.219379999674857</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56">
-        <v>2456112.9775999999</v>
-      </c>
-      <c r="C56">
-        <v>2456112.97817</v>
-      </c>
-      <c r="D56" s="21">
-        <v>5.6499999999999996E-4</v>
-      </c>
-      <c r="E56">
-        <f>B56-B55</f>
-        <v>19.219670000020415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57">
-        <v>2456132.1967699998</v>
-      </c>
-      <c r="C57">
-        <v>2456132.1965399999</v>
-      </c>
-      <c r="D57" s="21">
-        <v>5.4999999999999992E-4</v>
-      </c>
-      <c r="E57">
-        <f>B57-B56</f>
-        <v>19.219169999938458</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58">
-        <v>2456151.4177899999</v>
-      </c>
-      <c r="C58">
-        <v>2456151.4178900002</v>
-      </c>
-      <c r="D58" s="21">
-        <v>6.3000000000000003E-4</v>
-      </c>
-      <c r="E58">
-        <f>B58-B57</f>
-        <v>19.221020000055432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59">
-        <v>2456170.6367600001</v>
-      </c>
-      <c r="C59">
-        <v>2456170.6361199999</v>
-      </c>
-      <c r="D59" s="21">
-        <v>4.3999999999999996E-4</v>
-      </c>
-      <c r="E59">
-        <f>B59-B58</f>
-        <v>19.218970000278205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60">
-        <v>2456189.8602</v>
-      </c>
-      <c r="C60">
-        <v>2456189.8603599998</v>
-      </c>
-      <c r="D60" s="21">
-        <v>5.5499999999999994E-4</v>
-      </c>
-      <c r="E60">
-        <f>B60-B59</f>
-        <v>19.223439999856055</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61">
-        <v>2456209.0802000002</v>
-      </c>
-      <c r="C61">
-        <v>2456209.0795200001</v>
-      </c>
-      <c r="D61" s="21">
-        <v>5.2999999999999998E-4</v>
-      </c>
-      <c r="E61">
-        <f>B61-B60</f>
-        <v>19.220000000204891</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62">
-        <v>2456228.3024599999</v>
-      </c>
-      <c r="C62">
-        <v>2456228.3027400002</v>
-      </c>
-      <c r="D62" s="21">
-        <v>7.0500000000000001E-4</v>
-      </c>
-      <c r="E62">
-        <f>B62-B61</f>
-        <v>19.222259999718517</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63">
-        <v>2456266.7432800001</v>
-      </c>
-      <c r="C63">
-        <v>2456266.7432900001</v>
-      </c>
-      <c r="D63" s="21">
-        <v>5.1500000000000005E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64">
-        <v>2456285.9662000001</v>
-      </c>
-      <c r="C64">
-        <v>2456285.96606</v>
-      </c>
-      <c r="D64" s="21">
-        <v>5.1000000000000004E-4</v>
-      </c>
-      <c r="E64">
-        <f>B64-B63</f>
-        <v>19.22292000008747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65">
-        <v>2456305.19038</v>
-      </c>
-      <c r="C65">
-        <v>2456305.1896099998</v>
-      </c>
-      <c r="D65" s="21">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E65">
-        <f>B65-B64</f>
-        <v>19.224179999902844</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66">
-        <v>2456324.4109700001</v>
-      </c>
-      <c r="C66">
-        <v>2456324.4104800001</v>
-      </c>
-      <c r="D66" s="21">
-        <v>5.6499999999999996E-4</v>
-      </c>
-      <c r="E66">
-        <f>B66-B65</f>
-        <v>19.220590000040829</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67">
-        <v>2456343.6339500002</v>
-      </c>
-      <c r="C67">
-        <v>2456343.6336599998</v>
-      </c>
-      <c r="D67" s="21">
-        <v>5.2000000000000006E-4</v>
-      </c>
-      <c r="E67">
-        <f>B67-B66</f>
-        <v>19.222980000078678</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68">
-        <v>2456362.85806</v>
-      </c>
-      <c r="C68">
-        <v>2456362.8585399999</v>
-      </c>
-      <c r="D68" s="21">
-        <v>5.3499999999999999E-4</v>
-      </c>
-      <c r="E68">
-        <f>B68-B67</f>
-        <v>19.224109999835491</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69">
-        <v>2456382.0846299999</v>
-      </c>
-      <c r="C69">
-        <v>2456382.0847100001</v>
-      </c>
-      <c r="D69" s="21">
-        <v>6.8000000000000005E-4</v>
-      </c>
-      <c r="E69">
-        <f>B69-B68</f>
-        <v>19.226569999940693</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70">
-        <v>2454969.3056600001</v>
-      </c>
-      <c r="C70">
-        <v>2454969.3059899998</v>
-      </c>
-      <c r="D70" s="21">
-        <v>7.7000000000000007E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71">
-        <v>2455008.3311600001</v>
-      </c>
-      <c r="C71">
-        <v>2455008.3316600001</v>
-      </c>
-      <c r="D71" s="21">
-        <v>7.0999999999999991E-4</v>
-      </c>
-      <c r="E71">
-        <f>B71-B70</f>
-        <v>39.025499999988824</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72">
-        <v>2455047.33665</v>
-      </c>
-      <c r="C72">
-        <v>2455047.33623</v>
-      </c>
-      <c r="D72" s="21">
-        <v>8.5000000000000006E-4</v>
-      </c>
-      <c r="E72">
-        <f>B72-B71</f>
-        <v>39.005489999894053</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73">
-        <v>2455086.3191</v>
-      </c>
-      <c r="C73">
-        <v>2455086.3201000001</v>
-      </c>
-      <c r="D73" s="21">
-        <v>1.15E-3</v>
-      </c>
-      <c r="E73">
-        <f>B73-B72</f>
-        <v>38.982450000010431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74">
-        <v>2455125.264</v>
-      </c>
-      <c r="C74">
-        <v>2455125.2640900002</v>
-      </c>
-      <c r="D74" s="21">
-        <v>9.8499999999999998E-4</v>
-      </c>
-      <c r="E74">
-        <f>B74-B73</f>
-        <v>38.944900000002235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75">
-        <v>2455164.1828700001</v>
-      </c>
-      <c r="C75">
-        <v>2455164.1841199999</v>
-      </c>
-      <c r="D75" s="21">
-        <v>8.4500000000000005E-4</v>
-      </c>
-      <c r="E75">
-        <f>B75-B74</f>
-        <v>38.918870000168681</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76">
-        <v>2455203.0728500001</v>
-      </c>
-      <c r="C76">
-        <v>2455203.0722500002</v>
-      </c>
-      <c r="D76" s="21">
-        <v>7.3499999999999998E-4</v>
-      </c>
-      <c r="E76">
-        <f>B76-B75</f>
-        <v>38.889979999978095</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77">
-        <v>2455241.9294099999</v>
-      </c>
-      <c r="C77">
-        <v>2455241.9301900002</v>
-      </c>
-      <c r="D77" s="21">
-        <v>7.3999999999999999E-4</v>
-      </c>
-      <c r="E77">
-        <f>B77-B76</f>
-        <v>38.85655999975279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78">
-        <v>2455280.7659499999</v>
-      </c>
-      <c r="C78">
-        <v>2455280.76565</v>
-      </c>
-      <c r="D78" s="21">
-        <v>7.1000000000000002E-4</v>
-      </c>
-      <c r="E78">
-        <f>B78-B77</f>
-        <v>38.836540000047535</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79">
-        <v>2455319.5783199999</v>
-      </c>
-      <c r="C79">
-        <v>2455319.57828</v>
-      </c>
-      <c r="D79" s="21">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="E79">
-        <f>B79-B78</f>
-        <v>38.812369999941438</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80">
-        <v>2455358.3775200001</v>
-      </c>
-      <c r="C80">
-        <v>2455358.3778900001</v>
-      </c>
-      <c r="D80" s="21">
-        <v>7.1499999999999992E-4</v>
-      </c>
-      <c r="E80">
-        <f>B80-B79</f>
-        <v>38.799200000241399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81">
-        <v>2455397.1692400002</v>
-      </c>
-      <c r="C81">
-        <v>2455397.1686399998</v>
-      </c>
-      <c r="D81" s="21">
-        <v>8.8499999999999994E-4</v>
-      </c>
-      <c r="E81">
-        <f>B81-B80</f>
-        <v>38.791720000095665</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82">
-        <v>2455435.95866</v>
-      </c>
-      <c r="C82">
-        <v>2455435.9589</v>
-      </c>
-      <c r="D82" s="21">
-        <v>7.5500000000000003E-4</v>
-      </c>
-      <c r="E82" s="22">
-        <f>B82-B81</f>
-        <v>38.789419999811798</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83">
-        <v>2455474.7537600002</v>
-      </c>
-      <c r="C83">
-        <v>2455474.7542500002</v>
-      </c>
-      <c r="D83" s="21">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="E83">
-        <f>B83-B82</f>
-        <v>38.795100000221282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84">
-        <v>2455513.5615500002</v>
-      </c>
-      <c r="C84">
-        <v>2455513.5619000001</v>
-      </c>
-      <c r="D84" s="21">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="E84">
-        <f>B84-B83</f>
-        <v>38.807789999991655</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85">
-        <v>2455552.3860599999</v>
-      </c>
-      <c r="C85">
-        <v>2455552.3860999998</v>
-      </c>
-      <c r="D85" s="21">
-        <v>9.3000000000000005E-4</v>
-      </c>
-      <c r="E85">
-        <f>B85-B84</f>
-        <v>38.824509999714792</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86">
-        <v>2455591.2366900002</v>
-      </c>
-      <c r="C86">
-        <v>2455591.2361300001</v>
-      </c>
-      <c r="D86" s="21">
-        <v>8.3000000000000001E-4</v>
-      </c>
-      <c r="E86">
-        <f>B86-B85</f>
-        <v>38.85063000023365</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87">
-        <v>2455630.1133099999</v>
-      </c>
-      <c r="C87">
-        <v>2455630.1137600001</v>
-      </c>
-      <c r="D87" s="21">
-        <v>8.25E-4</v>
-      </c>
-      <c r="E87">
-        <f>B87-B86</f>
-        <v>38.876619999762625</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88">
-        <v>2455669.0227000001</v>
-      </c>
-      <c r="C88">
-        <v>2455669.0222499999</v>
-      </c>
-      <c r="D88" s="21">
-        <v>8.0499999999999994E-4</v>
-      </c>
-      <c r="E88">
-        <f>B88-B87</f>
-        <v>38.909390000160784</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="22">
-        <v>2455746.9351900001</v>
-      </c>
-      <c r="C89">
-        <v>2455746.93487</v>
-      </c>
-      <c r="D89" s="21">
-        <v>7.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="22">
-        <v>2455785.9350399999</v>
-      </c>
-      <c r="C90">
-        <v>2455785.93585</v>
-      </c>
-      <c r="D90" s="21">
-        <v>7.1999999999999994E-4</v>
-      </c>
-      <c r="E90">
-        <f>B90-B89</f>
-        <v>38.999849999789149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="22">
-        <v>2455824.9602100002</v>
-      </c>
-      <c r="C91">
-        <v>2455824.9597800002</v>
-      </c>
-      <c r="D91" s="21">
-        <v>8.4500000000000005E-4</v>
-      </c>
-      <c r="E91">
-        <f>B91-B90</f>
-        <v>39.025170000270009</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92">
-        <v>2455864.00067</v>
-      </c>
-      <c r="C92">
-        <v>2455864.0005600001</v>
-      </c>
-      <c r="D92" s="21">
-        <v>6.7500000000000004E-4</v>
-      </c>
-      <c r="E92">
-        <f>B92-B91</f>
-        <v>39.04045999981463</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93">
-        <v>2455903.0542100002</v>
-      </c>
-      <c r="C93">
-        <v>2455903.0546300001</v>
-      </c>
-      <c r="D93" s="21">
-        <v>9.2000000000000003E-4</v>
-      </c>
-      <c r="E93">
-        <f>B93-B92</f>
-        <v>39.053540000226349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94">
-        <v>2455942.1160300002</v>
-      </c>
-      <c r="C94">
-        <v>2455942.1172799999</v>
-      </c>
-      <c r="D94" s="21">
-        <v>7.9000000000000001E-4</v>
-      </c>
-      <c r="E94">
-        <f>B94-B93</f>
-        <v>39.061819999944419</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95">
-        <v>2455981.18462</v>
-      </c>
-      <c r="C95">
-        <v>2455981.18524</v>
-      </c>
-      <c r="D95" s="21">
-        <v>7.9000000000000001E-4</v>
-      </c>
-      <c r="E95">
-        <f>B95-B94</f>
-        <v>39.068589999806136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96">
-        <v>2456020.2580599999</v>
-      </c>
-      <c r="C96">
-        <v>2456020.2568399999</v>
-      </c>
-      <c r="D96" s="21">
-        <v>7.6500000000000005E-4</v>
-      </c>
-      <c r="E96">
-        <f>B96-B95</f>
-        <v>39.073439999949187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97">
-        <v>2456059.3319000001</v>
-      </c>
-      <c r="C97">
-        <v>2456059.3310799999</v>
-      </c>
-      <c r="D97" s="21">
-        <v>7.3999999999999999E-4</v>
-      </c>
-      <c r="E97">
-        <f>B97-B96</f>
-        <v>39.073840000201017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98">
-        <v>2456098.4048899999</v>
-      </c>
-      <c r="C98">
-        <v>2456098.4045000002</v>
-      </c>
-      <c r="D98" s="21">
-        <v>7.3499999999999998E-4</v>
-      </c>
-      <c r="E98">
-        <f>B98-B97</f>
-        <v>39.072989999782294</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>37</v>
-      </c>
-      <c r="B99">
-        <v>2456137.4786999999</v>
-      </c>
-      <c r="C99">
-        <v>2456137.4788799998</v>
-      </c>
-      <c r="D99" s="21">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="E99">
-        <f>B99-B98</f>
-        <v>39.073809999972582</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100">
-        <v>2456176.5539699998</v>
-      </c>
-      <c r="C100">
-        <v>2456176.5534799998</v>
-      </c>
-      <c r="D100" s="21">
-        <v>7.6000000000000004E-4</v>
-      </c>
-      <c r="E100" s="22">
-        <f>B100-B99</f>
-        <v>39.075269999913871</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101">
-        <v>2456215.6271799998</v>
-      </c>
-      <c r="C101">
-        <v>2456215.6258399999</v>
-      </c>
-      <c r="D101" s="21">
-        <v>6.6500000000000001E-4</v>
-      </c>
-      <c r="E101">
-        <f>B101-B100</f>
-        <v>39.073210000060499</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102">
-        <v>2456254.6964500002</v>
-      </c>
-      <c r="C102">
-        <v>2456254.6963200001</v>
-      </c>
-      <c r="D102" s="21">
-        <v>7.85E-4</v>
-      </c>
-      <c r="E102">
-        <f>B102-B101</f>
-        <v>39.069270000327379</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103">
-        <v>2456293.7677699998</v>
-      </c>
-      <c r="C103">
-        <v>2456293.7678399999</v>
-      </c>
-      <c r="D103" s="21">
-        <v>6.8000000000000005E-4</v>
-      </c>
-      <c r="E103">
-        <f>B103-B102</f>
-        <v>39.071319999638945</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104">
-        <v>2456332.8347200002</v>
-      </c>
-      <c r="C104">
-        <v>2456332.8348099999</v>
-      </c>
-      <c r="D104" s="21">
-        <v>7.45E-4</v>
-      </c>
-      <c r="E104">
-        <f>B104-B103</f>
-        <v>39.066950000356883</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105">
-        <v>2456371.9027</v>
-      </c>
-      <c r="C105">
-        <v>2456371.9022599999</v>
-      </c>
-      <c r="D105" s="21">
-        <v>7.2499999999999995E-4</v>
-      </c>
-      <c r="E105">
-        <f>B105-B104</f>
-        <v>39.067979999817908</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
-    <sortCondition ref="A3:A105"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E5C3A0-141D-4A8B-B32C-FCC88ACF62EC}">
   <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,1161 +3397,1605 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>35</v>
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="23">
         <v>2454977.2496199999</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="23">
         <v>5.3499999999999999E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="A3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="23">
         <v>2454996.4842300001</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="23">
         <v>6.7500000000000004E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="23">
         <v>2455034.95597</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="23">
         <v>5.5999999999999995E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="A5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23">
         <v>2455054.1917300001</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="23">
         <v>6.1000000000000008E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="21">
+        <v>21</v>
+      </c>
+      <c r="B6" s="19">
         <v>2455073.4352000002</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>9.7499999999999996E-4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="21">
+        <v>21</v>
+      </c>
+      <c r="B7" s="19">
         <v>2455111.9259899999</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="21">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19">
         <v>2455131.1723500001</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>4.95E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="21">
+        <v>21</v>
+      </c>
+      <c r="B9" s="19">
         <v>2455150.42998</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>5.4000000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="21">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19">
         <v>2455169.6823900002</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>5.8E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="21">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19">
         <v>2455188.9458400002</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>5.8500000000000002E-4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="21">
+        <v>21</v>
+      </c>
+      <c r="B12" s="19">
         <v>2455208.2039200002</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>5.2500000000000008E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="21">
+        <v>21</v>
+      </c>
+      <c r="B13" s="19">
         <v>2455227.4750600001</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>5.8E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="21">
+        <v>21</v>
+      </c>
+      <c r="B14" s="19">
         <v>2455246.73752</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <v>5.8500000000000002E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="21">
+        <v>21</v>
+      </c>
+      <c r="B15" s="19">
         <v>2455266.0141599998</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="19">
         <v>6.0999999999999997E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="21">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19">
         <v>2455285.2828899999</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <v>5.4499999999999991E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="21">
+        <v>21</v>
+      </c>
+      <c r="B17" s="19">
         <v>2455304.5641899998</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>5.4500000000000002E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="21">
+        <v>21</v>
+      </c>
+      <c r="B18" s="19">
         <v>2455323.8356499998</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>6.1000000000000008E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="21">
+        <v>21</v>
+      </c>
+      <c r="B19" s="19">
         <v>2455343.1189600001</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>5.9000000000000003E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="21">
+        <v>21</v>
+      </c>
+      <c r="B20" s="19">
         <v>2455362.3938199999</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>7.1499999999999992E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="19">
         <v>2455381.6795199998</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <v>6.0499999999999996E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
         <v>2455400.95695</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="19">
         <v>5.5999999999999995E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="19">
         <v>2455420.24089</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="19">
         <v>5.8E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="21">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19">
         <v>2455439.5199000002</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="19">
         <v>1.4499999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="21">
+        <v>21</v>
+      </c>
+      <c r="B25" s="19">
         <v>2455458.8035599999</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="19">
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="21">
+        <v>21</v>
+      </c>
+      <c r="B26" s="19">
         <v>2455478.07889</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="19">
         <v>5.8E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="21">
+        <v>21</v>
+      </c>
+      <c r="B27" s="19">
         <v>2455497.3603300001</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="19">
         <v>6.0500000000000007E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="21">
+        <v>21</v>
+      </c>
+      <c r="B28" s="19">
         <v>2455516.6356899999</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="19">
         <v>5.7499999999999999E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="21">
+        <v>21</v>
+      </c>
+      <c r="B29" s="19">
         <v>2455535.9098200002</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>5.2500000000000008E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="21">
+        <v>21</v>
+      </c>
+      <c r="B30" s="19">
         <v>2455574.4517600001</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="19">
         <v>6.150000000000001E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="21">
+        <v>21</v>
+      </c>
+      <c r="B31" s="19">
         <v>2455593.7231000001</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="19">
         <v>1.9499999999999999E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="21">
+        <v>21</v>
+      </c>
+      <c r="B32" s="19">
         <v>2455612.98214</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="19">
         <v>7.7000000000000007E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="21">
+        <v>21</v>
+      </c>
+      <c r="B33" s="19">
         <v>2455632.2430799999</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="19">
         <v>5.5499999999999994E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="21">
+        <v>21</v>
+      </c>
+      <c r="B34" s="19">
         <v>2455651.4979699999</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="19">
         <v>5.9000000000000003E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="21">
+        <v>21</v>
+      </c>
+      <c r="B35" s="19">
         <v>2455670.7526400001</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="19">
         <v>6.9499999999999998E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="21">
+        <v>21</v>
+      </c>
+      <c r="B36" s="19">
         <v>2455690.0013199998</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="19">
         <v>6.0500000000000007E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="21">
+        <v>21</v>
+      </c>
+      <c r="B37" s="19">
         <v>2455709.2495400002</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="19">
         <v>5.5999999999999995E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="21">
+        <v>21</v>
+      </c>
+      <c r="B38" s="19">
         <v>2455728.4919599998</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="19">
         <v>5.3499999999999999E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="21">
+        <v>21</v>
+      </c>
+      <c r="B39" s="19">
         <v>2455747.7319200002</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="19">
         <v>7.0500000000000001E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="21">
+        <v>21</v>
+      </c>
+      <c r="B40" s="19">
         <v>2455766.9675400001</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="19">
         <v>6.4999999999999997E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="21">
+        <v>21</v>
+      </c>
+      <c r="B41" s="19">
         <v>2455786.2048399998</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="19">
         <v>5.8E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="21">
+        <v>21</v>
+      </c>
+      <c r="B42" s="19">
         <v>2455805.4325700002</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="19">
         <v>5.5499999999999994E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="21">
+        <v>21</v>
+      </c>
+      <c r="B43" s="19">
         <v>2455824.6633100002</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="19">
         <v>5.6999999999999998E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="21">
+        <v>21</v>
+      </c>
+      <c r="B44" s="19">
         <v>2455843.8896499998</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="19">
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="21">
+        <v>21</v>
+      </c>
+      <c r="B45" s="19">
         <v>2455863.1143200002</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="19">
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="21">
+        <v>21</v>
+      </c>
+      <c r="B46" s="19">
         <v>2455882.3377899998</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="19">
         <v>5.0500000000000002E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="21">
+        <v>21</v>
+      </c>
+      <c r="B47" s="19">
         <v>2455901.5609400002</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="19">
         <v>5.4999999999999992E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="21">
+        <v>21</v>
+      </c>
+      <c r="B48" s="19">
         <v>2455920.7805499998</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <v>5.1500000000000005E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="21">
+        <v>21</v>
+      </c>
+      <c r="B49" s="19">
         <v>2455940.0038700001</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="19">
         <v>5.6999999999999998E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="21">
+        <v>21</v>
+      </c>
+      <c r="B50" s="19">
         <v>2455978.4424100001</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="19">
         <v>5.9000000000000003E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="21">
+        <v>21</v>
+      </c>
+      <c r="B51" s="19">
         <v>2456016.8809099998</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="19">
         <v>5.7499999999999999E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="21">
+        <v>21</v>
+      </c>
+      <c r="B52" s="19">
         <v>2456036.0989399999</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="19">
         <v>7.2000000000000005E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="21">
+        <v>21</v>
+      </c>
+      <c r="B53" s="19">
         <v>2456055.31856</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="19">
         <v>5.9500000000000004E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="21">
+        <v>21</v>
+      </c>
+      <c r="B54" s="19">
         <v>2456074.5385500002</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="19">
         <v>6.0999999999999997E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="21">
+        <v>21</v>
+      </c>
+      <c r="B55" s="19">
         <v>2456093.7579299998</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="19">
         <v>6.0000000000000006E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="21">
+        <v>21</v>
+      </c>
+      <c r="B56" s="19">
         <v>2456112.9775999999</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="19">
         <v>5.6499999999999996E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="21">
+        <v>21</v>
+      </c>
+      <c r="B57" s="19">
         <v>2456132.1967699998</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="19">
         <v>5.4999999999999992E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="21">
+        <v>21</v>
+      </c>
+      <c r="B58" s="19">
         <v>2456151.4177899999</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="19">
         <v>6.3000000000000003E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="21">
+        <v>21</v>
+      </c>
+      <c r="B59" s="19">
         <v>2456170.6367600001</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="19">
         <v>4.3999999999999996E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="21">
+        <v>21</v>
+      </c>
+      <c r="B60" s="19">
         <v>2456189.8602</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="19">
         <v>5.5499999999999994E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="21">
+        <v>21</v>
+      </c>
+      <c r="B61" s="19">
         <v>2456209.0802000002</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="19">
         <v>5.2999999999999998E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="21">
+        <v>21</v>
+      </c>
+      <c r="B62" s="19">
         <v>2456228.3024599999</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="19">
         <v>7.0500000000000001E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="21">
+        <v>21</v>
+      </c>
+      <c r="B63" s="19">
         <v>2456266.7432800001</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="19">
         <v>5.1500000000000005E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="21">
+        <v>21</v>
+      </c>
+      <c r="B64" s="19">
         <v>2456285.9662000001</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="19">
         <v>5.1000000000000004E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="21">
+        <v>21</v>
+      </c>
+      <c r="B65" s="19">
         <v>2456305.19038</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="19">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="21">
+        <v>21</v>
+      </c>
+      <c r="B66" s="19">
         <v>2456324.4109700001</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="19">
         <v>5.6499999999999996E-4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B67" s="21">
+        <v>21</v>
+      </c>
+      <c r="B67" s="19">
         <v>2456343.6339500002</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="19">
         <v>5.2000000000000006E-4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="21">
+        <v>21</v>
+      </c>
+      <c r="B68" s="19">
         <v>2456362.85806</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="19">
         <v>5.3499999999999999E-4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="21">
+        <v>21</v>
+      </c>
+      <c r="B69" s="19">
         <v>2456382.0846299999</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="19">
         <v>6.8000000000000005E-4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="21">
+      <c r="A70" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="23">
         <v>2454969.3056600001</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="23">
         <v>7.7000000000000007E-4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="21">
+      <c r="A71" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="23">
         <v>2455008.3311600001</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="23">
         <v>7.0999999999999991E-4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72" s="21">
+      <c r="A72" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="23">
         <v>2455047.33665</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="23">
         <v>8.5000000000000006E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="21">
+        <v>22</v>
+      </c>
+      <c r="B73" s="19">
         <v>2455086.3191</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="19">
         <v>1.15E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="21">
+        <v>22</v>
+      </c>
+      <c r="B74" s="19">
         <v>2455125.264</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="19">
         <v>9.8499999999999998E-4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="21">
+        <v>22</v>
+      </c>
+      <c r="B75" s="19">
         <v>2455164.1828700001</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="19">
         <v>8.4500000000000005E-4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="21">
+        <v>22</v>
+      </c>
+      <c r="B76" s="19">
         <v>2455203.0728500001</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="19">
         <v>7.3499999999999998E-4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="21">
+        <v>22</v>
+      </c>
+      <c r="B77" s="19">
         <v>2455241.9294099999</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="19">
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="21">
+        <v>22</v>
+      </c>
+      <c r="B78" s="19">
         <v>2455280.7659499999</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="19">
         <v>7.1000000000000002E-4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" s="21">
+        <v>22</v>
+      </c>
+      <c r="B79" s="19">
         <v>2455319.5783199999</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="19">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" s="21">
+        <v>22</v>
+      </c>
+      <c r="B80" s="19">
         <v>2455358.3775200001</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="19">
         <v>7.1499999999999992E-4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="21">
+        <v>22</v>
+      </c>
+      <c r="B81" s="19">
         <v>2455397.1692400002</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="19">
         <v>8.8499999999999994E-4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="21">
+        <v>22</v>
+      </c>
+      <c r="B82" s="19">
         <v>2455435.95866</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="19">
         <v>7.5500000000000003E-4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="21">
+        <v>22</v>
+      </c>
+      <c r="B83" s="19">
         <v>2455474.7537600002</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="19">
         <v>1.0200000000000001E-3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="21">
+        <v>22</v>
+      </c>
+      <c r="B84" s="19">
         <v>2455513.5615500002</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="19">
         <v>7.2000000000000005E-4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" s="21">
+        <v>22</v>
+      </c>
+      <c r="B85" s="19">
         <v>2455552.3860599999</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="19">
         <v>9.3000000000000005E-4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="21">
+        <v>22</v>
+      </c>
+      <c r="B86" s="19">
         <v>2455591.2366900002</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="19">
         <v>8.3000000000000001E-4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="21">
+        <v>22</v>
+      </c>
+      <c r="B87" s="19">
         <v>2455630.1133099999</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="19">
         <v>8.25E-4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" s="21">
+        <v>22</v>
+      </c>
+      <c r="B88" s="24">
         <v>2455669.0227000001</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="19">
         <v>8.0499999999999994E-4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="25">
+        <v>22</v>
+      </c>
+      <c r="B89" s="24">
         <v>2455746.9351900001</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="19">
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="25">
+        <v>22</v>
+      </c>
+      <c r="B90" s="24">
         <v>2455785.9350399999</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="19">
         <v>7.1999999999999994E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="25">
+        <v>22</v>
+      </c>
+      <c r="B91" s="24">
         <v>2455824.9602100002</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="19">
         <v>8.4500000000000005E-4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="21">
+        <v>22</v>
+      </c>
+      <c r="B92" s="24">
         <v>2455864.00067</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="19">
         <v>6.7500000000000004E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="21">
+        <v>22</v>
+      </c>
+      <c r="B93" s="19">
         <v>2455903.0542100002</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="19">
         <v>9.2000000000000003E-4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="21">
+        <v>22</v>
+      </c>
+      <c r="B94" s="19">
         <v>2455942.1160300002</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="19">
         <v>7.9000000000000001E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="21">
+        <v>22</v>
+      </c>
+      <c r="B95" s="19">
         <v>2455981.18462</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="19">
         <v>7.9000000000000001E-4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" s="21">
+        <v>22</v>
+      </c>
+      <c r="B96" s="19">
         <v>2456020.2580599999</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="19">
         <v>7.6500000000000005E-4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97" s="21">
+        <v>22</v>
+      </c>
+      <c r="B97" s="19">
         <v>2456059.3319000001</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="19">
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="21">
+        <v>22</v>
+      </c>
+      <c r="B98" s="19">
         <v>2456098.4048899999</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="19">
         <v>7.3499999999999998E-4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>37</v>
-      </c>
-      <c r="B99" s="21">
+        <v>22</v>
+      </c>
+      <c r="B99" s="19">
         <v>2456137.4786999999</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="19">
         <v>1.0200000000000001E-3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" s="21">
+        <v>22</v>
+      </c>
+      <c r="B100" s="19">
         <v>2456176.5539699998</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="19">
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" s="21">
+        <v>22</v>
+      </c>
+      <c r="B101" s="19">
         <v>2456215.6271799998</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="19">
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" s="21">
+        <v>22</v>
+      </c>
+      <c r="B102" s="19">
         <v>2456254.6964500002</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="19">
         <v>7.85E-4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" s="21">
+        <v>22</v>
+      </c>
+      <c r="B103" s="19">
         <v>2456293.7677699998</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="19">
         <v>6.8000000000000005E-4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104" s="21">
+        <v>22</v>
+      </c>
+      <c r="B104" s="19">
         <v>2456332.8347200002</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="19">
         <v>7.45E-4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="21">
+        <v>22</v>
+      </c>
+      <c r="B105" s="19">
         <v>2456371.9027</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="19">
         <v>7.2499999999999995E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE1DAA7-A72A-4008-A6FB-B7E9BAD72FA0}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>6.2306411564350101E-5</v>
+      </c>
+      <c r="B2">
+        <v>1.7838273197412399E-4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1.2567220255732501E-4</v>
+      </c>
+      <c r="B3">
+        <v>3.3514574170112599E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1.6781548038125E-4</v>
+      </c>
+      <c r="B4">
+        <v>-1.41823897138237E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-5.6542130187153805E-4</v>
+      </c>
+      <c r="B5">
+        <v>1.3873656280338699E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.1879823654890001E-4</v>
+      </c>
+      <c r="B6">
+        <v>-1.13887200132012E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.9929418340325301E-4</v>
+      </c>
+      <c r="B7">
+        <v>2.8699496760964301E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3.4579075872898102E-4</v>
+      </c>
+      <c r="B8">
+        <v>4.8944354057312001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8.2376925274729696E-4</v>
+      </c>
+      <c r="B9">
+        <v>1.0274769738316499E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.6694422811269701E-4</v>
+      </c>
+      <c r="B10">
+        <v>6.6324789077043501E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.0331720113754201E-4</v>
+      </c>
+      <c r="B11">
+        <v>7.6423119753599102E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-9.7848754376172998E-4</v>
+      </c>
+      <c r="B12" s="20">
+        <v>-1.15856528282165E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.5870866850018501E-4</v>
+      </c>
+      <c r="B13">
+        <v>7.1484083309769598E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.8267426639795301E-4</v>
+      </c>
+      <c r="B14">
+        <v>-8.9162308722734397E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.1327746324241101E-3</v>
+      </c>
+      <c r="B15" s="20">
+        <v>-2.09077261388301E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>5.3766183555126102E-5</v>
+      </c>
+      <c r="B16">
+        <v>-5.1605142652988401E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.8403539434075301E-4</v>
+      </c>
+      <c r="B17">
+        <v>1.7052050679922101E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8.6149480193853302E-4</v>
+      </c>
+      <c r="B18" s="20">
+        <v>2.8131064027547799E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-1.7674313858151401E-4</v>
+      </c>
+      <c r="B19">
+        <v>-2.14694440364837E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-7.2043761610984802E-4</v>
+      </c>
+      <c r="B20">
+        <v>-1.5098685398697801E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.8177883774042108E-4</v>
+      </c>
+      <c r="B21">
+        <v>-5.4837064817547798E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-3.0537042766809398E-4</v>
+      </c>
+      <c r="B22">
+        <v>1.1347536928951699E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-9.0607767924666405E-4</v>
+      </c>
+      <c r="B23">
+        <v>1.76815781742334E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7.5459573417901895E-4</v>
+      </c>
+      <c r="B24">
+        <v>5.6623201817273996E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.6513699665665599E-4</v>
+      </c>
+      <c r="B25">
+        <v>3.3477181568741798E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-4.7037065960466801E-3</v>
+      </c>
+      <c r="B26">
+        <v>1.16347335278987E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-2.9075285419821701E-4</v>
+      </c>
+      <c r="B27">
+        <v>8.9843478053808201E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-4.5868335291743203E-4</v>
+      </c>
+      <c r="B28">
+        <v>-1.3369959779083701E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7.4508367106318398E-4</v>
+      </c>
+      <c r="B29">
+        <v>-2.0916960202157402E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5.1051657646894401E-4</v>
+      </c>
+      <c r="B30">
+        <v>4.1720177978277201E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3.9025675505399699E-4</v>
+      </c>
+      <c r="B31">
+        <v>-2.47116666287183E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>4.1231513023376397E-5</v>
+      </c>
+      <c r="B32">
+        <v>1.6041980125010001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-1.0245675221085501E-3</v>
+      </c>
+      <c r="B33">
+        <v>-9.52966976910829E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5.1974784582853296E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-1.9041728228330601E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-1.78408762440085E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>4.2282044887542698E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>-1.18464231491088E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-1.04403356090188E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.03128887712955E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-1.93317886441946E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3.9439834654331202E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.0359063744544901E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-6.42694998532533E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.8364034369587898E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.32057350128889E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9.4247981905937195E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6.6269794479012403E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>-6.1258208006620394E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>-6.3952058553695597E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.3255327939987101E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5.6414911523461298E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>7.6460186392068795E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.0453741997480299E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-1.2071048840880301E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-8.5316598415374702E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-1.3075228780508E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.1128899641335E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-3.2995454967021899E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-1.53164518997073E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.8379371613264E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8.5497321560978803E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.9305571913719101E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-1.8621594645082901E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/Kepler9.xlsx
+++ b/results/Kepler9.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E057ED5-FD9C-4F36-B394-AEA7C322365D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA043C6-B39C-4651-9EAD-B288C3BB45B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{98936307-1AC5-4379-A05D-810F04CE2DDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{98936307-1AC5-4379-A05D-810F04CE2DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="post Kepler 1" sheetId="1" r:id="rId1"/>
     <sheet name="post Kepler 2" sheetId="2" r:id="rId2"/>
     <sheet name="Kepler TT" sheetId="8" r:id="rId3"/>
     <sheet name="TT Residuen" sheetId="10" r:id="rId4"/>
+    <sheet name="X038 vs. Paper" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="56">
   <si>
     <t>TT</t>
   </si>
@@ -141,16 +142,105 @@
   <si>
     <t>Transits nach Kepler gingen ebenfalls nicht ein.</t>
   </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>long_body_parameter_name</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>startvalue</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>hdi_min</t>
+  </si>
+  <si>
+    <t>hdi_max</t>
+  </si>
+  <si>
+    <t>max_likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9b.mass [m_jup]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9b.e [1]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9b.P [d]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9b.omega [deg]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9b.ma [deg]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9c.mass [m_jup]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9c.e [1]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9c.P [d]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9c.Omega [deg]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9c.omega [deg]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "KEPLER9c.ma [deg]"</t>
+  </si>
+  <si>
+    <t>hdi/2 vs std</t>
+  </si>
+  <si>
+    <t>(mean-median)/std</t>
+  </si>
+  <si>
+    <t>(maxL-median)/std</t>
+  </si>
+  <si>
+    <t>std/median</t>
+  </si>
+  <si>
+    <t>6) HARPS-N radial velocities confirm the low densities of the Kepler-9 planets, Borsato, L et al.: Table 3:</t>
+  </si>
+  <si>
+    <t>Ulis MCMC fit X038:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +277,21 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,10 +347,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -296,9 +402,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1821,6 +1938,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EBC2B1-D535-42A9-85D3-9AF7F4AC810F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="0"/>
+          <a:ext cx="6286499" cy="4457264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -4357,7 +4523,7 @@
       <c r="A88" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="24">
+      <c r="B88" s="19">
         <v>2455669.0227000001</v>
       </c>
       <c r="C88" s="19">
@@ -4368,7 +4534,7 @@
       <c r="A89" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="24">
+      <c r="B89" s="19">
         <v>2455746.9351900001</v>
       </c>
       <c r="C89" s="19">
@@ -4379,7 +4545,7 @@
       <c r="A90" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="24">
+      <c r="B90" s="19">
         <v>2455785.9350399999</v>
       </c>
       <c r="C90" s="19">
@@ -4390,7 +4556,7 @@
       <c r="A91" t="s">
         <v>22</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B91" s="19">
         <v>2455824.9602100002</v>
       </c>
       <c r="C91" s="19">
@@ -4401,7 +4567,7 @@
       <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="24">
+      <c r="B92" s="19">
         <v>2455864.00067</v>
       </c>
       <c r="C92" s="19">
@@ -4560,7 +4726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE1DAA7-A72A-4008-A6FB-B7E9BAD72FA0}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4998,4 +5164,683 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8227A4-E39F-4CC9-8B5A-0D52956E2795}">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="20">
+        <v>5.2683580414057098E-28</v>
+      </c>
+      <c r="C26">
+        <v>0.13654783252901301</v>
+      </c>
+      <c r="D26">
+        <v>6.2925268446549804E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.25170107378619899</v>
+      </c>
+      <c r="F26">
+        <v>5.66327416018948E-3</v>
+      </c>
+      <c r="G26">
+        <v>0.140229757390713</v>
+      </c>
+      <c r="H26">
+        <v>0.14334956440462401</v>
+      </c>
+      <c r="I26">
+        <v>1.5161583846940801E-3</v>
+      </c>
+      <c r="J26">
+        <v>0.141722167543749</v>
+      </c>
+      <c r="K26">
+        <v>0.141701426563553</v>
+      </c>
+      <c r="L26">
+        <v>0.14149584361360101</v>
+      </c>
+      <c r="N26" s="24">
+        <f>(H26-G26)/2/I26-1</f>
+        <v>2.8852607157037413E-2</v>
+      </c>
+      <c r="O26" s="27">
+        <f>(J26-K26)/I26</f>
+        <v>1.3679956134783363E-2</v>
+      </c>
+      <c r="P26" s="27">
+        <f>(L26-K26)/I26</f>
+        <v>-0.1355946397338092</v>
+      </c>
+      <c r="Q26" s="28">
+        <f>I26/K26</f>
+        <v>1.0699669166803229E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.05</v>
+      </c>
+      <c r="E27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G27">
+        <v>5.9614214005854101E-2</v>
+      </c>
+      <c r="H27">
+        <v>6.1295046838582702E-2</v>
+      </c>
+      <c r="I27">
+        <v>8.1538011267908404E-4</v>
+      </c>
+      <c r="J27">
+        <v>6.0441242627747402E-2</v>
+      </c>
+      <c r="K27">
+        <v>6.0443785151827502E-2</v>
+      </c>
+      <c r="L27">
+        <v>6.0520597384035701E-2</v>
+      </c>
+      <c r="N27" s="24">
+        <f t="shared" ref="N27:N36" si="0">(H27-G27)/2/I27-1</f>
+        <v>3.070507030513081E-2</v>
+      </c>
+      <c r="O27" s="27">
+        <f t="shared" ref="O27:O36" si="1">(J27-K27)/I27</f>
+        <v>-3.118207128876413E-3</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" ref="P27:P36" si="2">(L27-K27)/I27</f>
+        <v>9.420420122317999E-2</v>
+      </c>
+      <c r="Q27" s="28">
+        <f t="shared" ref="Q27:Q36" si="3">I27/K27</f>
+        <v>1.3489891651076244E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1.1574074074074001E-5</v>
+      </c>
+      <c r="C28">
+        <v>19.25</v>
+      </c>
+      <c r="D28">
+        <v>19.149999999999899</v>
+      </c>
+      <c r="E28">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="F28">
+        <v>4.9999999999999899E-2</v>
+      </c>
+      <c r="G28">
+        <v>19.243774210735399</v>
+      </c>
+      <c r="H28">
+        <v>19.243931173550099</v>
+      </c>
+      <c r="I28" s="20">
+        <v>7.7361866068524805E-5</v>
+      </c>
+      <c r="J28">
+        <v>19.243849962421098</v>
+      </c>
+      <c r="K28">
+        <v>19.243851433180101</v>
+      </c>
+      <c r="L28">
+        <v>19.243867143835701</v>
+      </c>
+      <c r="N28" s="24">
+        <f t="shared" si="0"/>
+        <v>1.4471487544880146E-2</v>
+      </c>
+      <c r="O28" s="27">
+        <f t="shared" si="1"/>
+        <v>-1.901142096654785E-2</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" si="2"/>
+        <v>0.20308010132098825</v>
+      </c>
+      <c r="Q28" s="28">
+        <f t="shared" si="3"/>
+        <v>4.0200822760010541E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>57.295779513082302</v>
+      </c>
+      <c r="C29">
+        <v>357</v>
+      </c>
+      <c r="D29">
+        <v>355</v>
+      </c>
+      <c r="E29">
+        <v>359</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>356.39148386678801</v>
+      </c>
+      <c r="H29">
+        <v>357.21388523782298</v>
+      </c>
+      <c r="I29">
+        <v>0.40052524306604098</v>
+      </c>
+      <c r="J29">
+        <v>356.80519542693099</v>
+      </c>
+      <c r="K29">
+        <v>356.81019645232402</v>
+      </c>
+      <c r="L29">
+        <v>356.87576555178498</v>
+      </c>
+      <c r="N29" s="24">
+        <f t="shared" si="0"/>
+        <v>2.665360707286113E-2</v>
+      </c>
+      <c r="O29" s="27">
+        <f t="shared" si="1"/>
+        <v>-1.2486167799924558E-2</v>
+      </c>
+      <c r="P29" s="27">
+        <f t="shared" si="2"/>
+        <v>0.1637077827080855</v>
+      </c>
+      <c r="Q29" s="28">
+        <f t="shared" si="3"/>
+        <v>1.1225162482697102E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>57.295779513082302</v>
+      </c>
+      <c r="C30">
+        <v>2.6</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>0.6</v>
+      </c>
+      <c r="G30">
+        <v>2.2533227588334501</v>
+      </c>
+      <c r="H30">
+        <v>3.2644333341875398</v>
+      </c>
+      <c r="I30">
+        <v>0.49200111563191401</v>
+      </c>
+      <c r="J30">
+        <v>2.7687251276838101</v>
+      </c>
+      <c r="K30">
+        <v>2.7637771002537099</v>
+      </c>
+      <c r="L30">
+        <v>2.6887456945456001</v>
+      </c>
+      <c r="N30" s="24">
+        <f t="shared" si="0"/>
+        <v>2.7549067704291996E-2</v>
+      </c>
+      <c r="O30" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0056943516774388E-2</v>
+      </c>
+      <c r="P30" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.15250251132406756</v>
+      </c>
+      <c r="Q30" s="28">
+        <f t="shared" si="3"/>
+        <v>0.17801765402381731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="20">
+        <v>5.2683580414057098E-28</v>
+      </c>
+      <c r="C31">
+        <v>9.4073276327591895E-2</v>
+      </c>
+      <c r="D31">
+        <v>4.7193951334912297E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.18877580533964899</v>
+      </c>
+      <c r="F31">
+        <v>3.7755161067929799E-3</v>
+      </c>
+      <c r="G31">
+        <v>9.6458915127449099E-2</v>
+      </c>
+      <c r="H31">
+        <v>9.8587198490172001E-2</v>
+      </c>
+      <c r="I31">
+        <v>1.03425349707671E-3</v>
+      </c>
+      <c r="J31">
+        <v>9.7535888004024504E-2</v>
+      </c>
+      <c r="K31">
+        <v>9.7522460140887404E-2</v>
+      </c>
+      <c r="L31">
+        <v>9.7388436408977999E-2</v>
+      </c>
+      <c r="N31" s="24">
+        <f t="shared" si="0"/>
+        <v>2.8898315905355076E-2</v>
+      </c>
+      <c r="O31" s="27">
+        <f t="shared" si="1"/>
+        <v>1.2983145017206486E-2</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.12958499273941987</v>
+      </c>
+      <c r="Q31" s="28">
+        <f t="shared" si="3"/>
+        <v>1.0605285137214124E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>6.6909999999999997E-2</v>
+      </c>
+      <c r="D32">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E32">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.1E-4</v>
+      </c>
+      <c r="G32">
+        <v>6.6654789791807598E-2</v>
+      </c>
+      <c r="H32">
+        <v>6.6926513985463801E-2</v>
+      </c>
+      <c r="I32">
+        <v>1.3774402978845599E-4</v>
+      </c>
+      <c r="J32">
+        <v>6.6799053759551905E-2</v>
+      </c>
+      <c r="K32">
+        <v>6.6793602788487505E-2</v>
+      </c>
+      <c r="L32">
+        <v>6.6713469544966195E-2</v>
+      </c>
+      <c r="N32" s="24">
+        <f t="shared" si="0"/>
+        <v>-1.3662537412653331E-2</v>
+      </c>
+      <c r="O32" s="27">
+        <f t="shared" si="1"/>
+        <v>3.9573192920020525E-2</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.58175474933016758</v>
+      </c>
+      <c r="Q32" s="28">
+        <f t="shared" si="3"/>
+        <v>2.062233867285827E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="20">
+        <v>1.1574074074074001E-5</v>
+      </c>
+      <c r="C33">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="D33">
+        <v>38.5</v>
+      </c>
+      <c r="E33">
+        <v>39.5</v>
+      </c>
+      <c r="F33">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="G33">
+        <v>38.9835652973265</v>
+      </c>
+      <c r="H33">
+        <v>38.984399257978303</v>
+      </c>
+      <c r="I33">
+        <v>4.0874735058816499E-4</v>
+      </c>
+      <c r="J33">
+        <v>38.983990132185703</v>
+      </c>
+      <c r="K33">
+        <v>38.983985385620301</v>
+      </c>
+      <c r="L33">
+        <v>38.983902716710197</v>
+      </c>
+      <c r="N33" s="24">
+        <f t="shared" si="0"/>
+        <v>2.0141966184611171E-2</v>
+      </c>
+      <c r="O33" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1612467689951691E-2</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.20224940904024685</v>
+      </c>
+      <c r="Q33" s="28">
+        <f t="shared" si="3"/>
+        <v>1.048500676739265E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>57.295779513082302</v>
+      </c>
+      <c r="C34">
+        <v>179</v>
+      </c>
+      <c r="D34">
+        <v>177</v>
+      </c>
+      <c r="E34">
+        <v>181</v>
+      </c>
+      <c r="F34">
+        <v>0.2</v>
+      </c>
+      <c r="G34">
+        <v>178.58228586010799</v>
+      </c>
+      <c r="H34">
+        <v>179.226122659536</v>
+      </c>
+      <c r="I34">
+        <v>0.31151552235969199</v>
+      </c>
+      <c r="J34">
+        <v>178.91500268050001</v>
+      </c>
+      <c r="K34">
+        <v>178.910326061142</v>
+      </c>
+      <c r="L34">
+        <v>179.154909758098</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="0"/>
+        <v>3.3394410896494975E-2</v>
+      </c>
+      <c r="O34" s="27">
+        <f t="shared" si="1"/>
+        <v>1.5012476176414961E-2</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" si="2"/>
+        <v>0.78514128318007248</v>
+      </c>
+      <c r="Q34" s="28">
+        <f t="shared" si="3"/>
+        <v>1.7411824639637211E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>57.295779513082302</v>
+      </c>
+      <c r="C35">
+        <v>167.5</v>
+      </c>
+      <c r="D35">
+        <v>167</v>
+      </c>
+      <c r="E35">
+        <v>168</v>
+      </c>
+      <c r="F35">
+        <v>0.1</v>
+      </c>
+      <c r="G35">
+        <v>167.09586479064299</v>
+      </c>
+      <c r="H35">
+        <v>167.37950516996301</v>
+      </c>
+      <c r="I35">
+        <v>0.13903301372693999</v>
+      </c>
+      <c r="J35">
+        <v>167.262098508261</v>
+      </c>
+      <c r="K35">
+        <v>167.25308200505401</v>
+      </c>
+      <c r="L35">
+        <v>167.15599391062301</v>
+      </c>
+      <c r="N35" s="24">
+        <f t="shared" si="0"/>
+        <v>2.0046864110588425E-2</v>
+      </c>
+      <c r="O35" s="27">
+        <f t="shared" si="1"/>
+        <v>6.4851526736676213E-2</v>
+      </c>
+      <c r="P35" s="27">
+        <f t="shared" si="2"/>
+        <v>-0.69830964479905122</v>
+      </c>
+      <c r="Q35" s="28">
+        <f t="shared" si="3"/>
+        <v>8.3127325404227061E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>57.295779513082302</v>
+      </c>
+      <c r="C36">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="D36">
+        <v>307</v>
+      </c>
+      <c r="E36">
+        <v>308</v>
+      </c>
+      <c r="F36">
+        <v>0.1</v>
+      </c>
+      <c r="G36">
+        <v>307.547292578243</v>
+      </c>
+      <c r="H36">
+        <v>307.798525003642</v>
+      </c>
+      <c r="I36">
+        <v>0.12316033263800499</v>
+      </c>
+      <c r="J36">
+        <v>307.65366788523698</v>
+      </c>
+      <c r="K36">
+        <v>307.66125192765799</v>
+      </c>
+      <c r="L36">
+        <v>307.74347176639498</v>
+      </c>
+      <c r="N36" s="24">
+        <f t="shared" si="0"/>
+        <v>1.9940511761293633E-2</v>
+      </c>
+      <c r="O36" s="27">
+        <f t="shared" si="1"/>
+        <v>-6.1578612679559448E-2</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" si="2"/>
+        <v>0.6675837664278762</v>
+      </c>
+      <c r="Q36" s="28">
+        <f t="shared" si="3"/>
+        <v>4.0031148500612726E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>